--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4081,10 +4081,10 @@
   <dimension ref="A1:AR76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AJ42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AP50" sqref="AP50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -4081,10 +4081,10 @@
   <dimension ref="A1:AR76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AJ42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP50" sqref="AP50"/>
+      <selection pane="bottomRight" activeCell="AL32" sqref="AL32:AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5357,7 +5357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6479,67 +6479,91 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>42.490473000000001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>43.224142999999899</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.47</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>7.48</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>418.7</v>
       </c>
-      <c r="J32">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
         <v>9.17</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>0.35</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>0.12</v>
       </c>
-      <c r="N32">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
         <v>1.03</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <v>1.52</v>
       </c>
-      <c r="R32">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
         <v>0.1</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="2">
         <v>0.2</v>
       </c>
-      <c r="V32">
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2">
         <v>0.3</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="2">
         <v>1.35</v>
       </c>
-      <c r="AH32">
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2">
         <v>9</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AL32">
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2">
         <v>61</v>
       </c>
-      <c r="AM32">
+      <c r="AM32" s="2">
         <v>9</v>
       </c>
-      <c r="AN32">
+      <c r="AN32" s="2">
         <v>16</v>
       </c>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -9616,5 +9640,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
     <sheet name="2021" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -728,12 +728,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,13 +791,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1096,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,189 +1775,220 @@
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>42.487632000416511</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>43.21873199968212</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>10.69</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>109.44</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>1.05</v>
       </c>
-      <c r="K7">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>107.2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>3.78</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>0.22</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>5.19</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>36.75</v>
       </c>
-      <c r="S7">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
         <v>0.32</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="V7">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <v>2.7850000000000001</v>
       </c>
-      <c r="Y7">
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AD7">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="AK7">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2">
         <v>16</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="2">
         <v>2</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="2">
         <v>4</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
         <v>45</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="2">
         <v>11</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="2">
         <v>22</v>
       </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>42.489012000203672</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>43.219430000394247</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>74.56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
         <v>81.739999999999995</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>12.05</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>1.96</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>0.43</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>19.47</v>
       </c>
-      <c r="S8">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
         <v>0.16</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>0.61</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="2">
         <v>3.23</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <v>0.68</v>
       </c>
-      <c r="Z8">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
         <v>0.622</v>
       </c>
-      <c r="AF8">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2">
         <v>0.51</v>
       </c>
-      <c r="AK8">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2">
         <v>17</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
         <v>1</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
         <v>58</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="2">
         <v>9</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="2">
         <v>15</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3075,94 +3115,110 @@
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>42.487691000439384</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>43.218566000120859</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.87</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>43.4</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J21">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>47.34</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>3.45</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>0.94</v>
       </c>
-      <c r="O21">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4">
         <v>0.85</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>21.2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>0.32</v>
       </c>
-      <c r="T21" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="V21">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
         <v>0.74</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="4">
         <v>1.99</v>
       </c>
-      <c r="AH21">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4">
         <v>2.23</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="4">
         <v>0.62</v>
       </c>
-      <c r="AK21">
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4">
         <v>10</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
+      <c r="AL21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4">
         <v>2</v>
       </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
+      <c r="AN21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="4">
         <v>53</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="4">
         <v>11</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="4">
         <v>24</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
+      <c r="AS21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4080,11 +4136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL32" sqref="AL32:AN32"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4353,1064 +4409,1046 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B3">
-        <v>42.467429000000003</v>
+        <v>42.493025000000003</v>
       </c>
       <c r="C3">
-        <v>43.220792000000003</v>
+        <v>43.224429999999899</v>
+      </c>
+      <c r="D3">
+        <v>0.52</v>
       </c>
       <c r="E3">
-        <v>5.57</v>
+        <v>3.23</v>
       </c>
       <c r="F3">
-        <v>185.3</v>
-      </c>
-      <c r="G3">
-        <v>1.9</v>
-      </c>
-      <c r="H3">
-        <v>3.1</v>
-      </c>
-      <c r="I3">
-        <v>2.1</v>
+        <v>463.9</v>
       </c>
       <c r="J3">
-        <v>3.87</v>
+        <v>5.94</v>
       </c>
       <c r="K3">
-        <v>2.11</v>
+        <v>0.6</v>
       </c>
       <c r="L3">
-        <v>6.17</v>
+        <v>0.43</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>7.66</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
       </c>
       <c r="S3">
-        <v>0.6</v>
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>0.9</v>
       </c>
       <c r="V3">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
-      </c>
-      <c r="AG3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.9</v>
+      </c>
+      <c r="Z3">
+        <v>0.06</v>
       </c>
       <c r="AH3">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="s">
         <v>142</v>
       </c>
-      <c r="AK3" t="s">
-        <v>59</v>
-      </c>
       <c r="AL3">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AM3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AN3">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B4">
-        <v>42.466709000000002</v>
+        <v>42.491557999999898</v>
       </c>
       <c r="C4">
-        <v>43.220782</v>
+        <v>43.223322000000003</v>
       </c>
       <c r="E4">
-        <v>11.8</v>
+        <v>1.49</v>
       </c>
       <c r="F4">
-        <v>240.5</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
+        <v>432.7</v>
       </c>
       <c r="J4">
-        <v>9.84</v>
+        <v>1.73</v>
       </c>
       <c r="K4">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="L4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N4">
-        <v>1.02</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
-        <v>6.84</v>
+        <v>0.34</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
         <v>0.4</v>
       </c>
-      <c r="W4">
-        <v>1.7</v>
-      </c>
-      <c r="AB4">
-        <v>0.5</v>
+      <c r="AC4">
+        <v>0.09</v>
       </c>
       <c r="AH4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="AJ4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AM4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AN4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B5">
-        <v>42.467247</v>
+        <v>42.491397999999897</v>
       </c>
       <c r="C5">
-        <v>43.220412000000003</v>
+        <v>43.223177</v>
       </c>
       <c r="D5">
-        <v>0.51</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>8.1199999999999992</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F5">
-        <v>300.39999999999998</v>
+        <v>375.4</v>
       </c>
       <c r="G5">
-        <v>1.5</v>
-      </c>
-      <c r="H5">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J5">
-        <v>8.8000000000000007</v>
+        <v>1.59</v>
       </c>
       <c r="K5">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="L5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O5">
-        <v>2.65</v>
-      </c>
-      <c r="P5">
-        <v>0.2</v>
-      </c>
-      <c r="Q5">
+        <v>0.23</v>
+      </c>
+      <c r="R5">
         <v>0.1</v>
-      </c>
-      <c r="R5">
-        <v>0.2</v>
       </c>
       <c r="S5">
         <v>0.2</v>
       </c>
       <c r="T5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W5">
-        <v>1.8</v>
-      </c>
-      <c r="AB5">
-        <v>0.4</v>
+        <v>0.05</v>
+      </c>
+      <c r="AA5">
+        <v>0.13</v>
+      </c>
+      <c r="AE5">
+        <v>0.15</v>
       </c>
       <c r="AH5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>144</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>146</v>
-      </c>
       <c r="AL5">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AM5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B6">
-        <v>42.467657000000003</v>
+        <v>42.491610000000001</v>
       </c>
       <c r="C6">
-        <v>43.220773999999899</v>
+        <v>43.222802999999899</v>
       </c>
       <c r="D6">
-        <v>0.59</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E6">
-        <v>8.0299999999999994</v>
+        <v>2.59</v>
       </c>
       <c r="F6">
-        <v>256.60000000000002</v>
-      </c>
-      <c r="H6">
-        <v>1.1000000000000001</v>
+        <v>426.4</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
       </c>
       <c r="J6">
-        <v>7.66</v>
+        <v>3.25</v>
       </c>
       <c r="K6">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="L6">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="M6">
+        <v>0.2</v>
+      </c>
+      <c r="N6">
         <v>0.1</v>
       </c>
-      <c r="N6">
-        <v>0.7</v>
-      </c>
       <c r="O6">
-        <v>3.48</v>
+        <v>1.99</v>
+      </c>
+      <c r="Q6">
+        <v>0.4</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
       </c>
       <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0.02</v>
+      </c>
+      <c r="U6">
+        <v>0.6</v>
+      </c>
+      <c r="V6">
         <v>0.3</v>
       </c>
-      <c r="V6">
-        <v>0.4</v>
-      </c>
       <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="Z6">
-        <v>0.11</v>
-      </c>
-      <c r="AB6">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AH6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>146</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>142</v>
-      </c>
       <c r="AL6">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="AM6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B7">
-        <v>42.467851000000003</v>
+        <v>42.491233999999899</v>
       </c>
       <c r="C7">
-        <v>43.221212000000001</v>
+        <v>43.222617999999898</v>
       </c>
       <c r="D7">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
-        <v>8.7799999999999994</v>
+        <v>1.24</v>
       </c>
       <c r="F7">
-        <v>299.89999999999998</v>
+        <v>474.5</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
       </c>
       <c r="J7">
-        <v>9.3000000000000007</v>
+        <v>2.02</v>
       </c>
       <c r="K7">
-        <v>0.62</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L7">
-        <v>0.78</v>
-      </c>
-      <c r="M7">
-        <v>0.3</v>
+        <v>1.03</v>
       </c>
       <c r="N7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O7">
-        <v>4.29</v>
-      </c>
-      <c r="P7">
-        <v>0.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="S7">
-        <v>0.3</v>
-      </c>
-      <c r="U7">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="V7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="AL7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AM7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AN7">
-        <v>19</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B8">
-        <v>42.469019000000003</v>
+        <v>42.490803999999898</v>
       </c>
       <c r="C8">
-        <v>43.221048000000003</v>
+        <v>43.221992</v>
+      </c>
+      <c r="D8">
+        <v>0.32</v>
       </c>
       <c r="E8">
-        <v>2.23</v>
+        <v>7.21</v>
       </c>
       <c r="F8">
-        <v>270</v>
+        <v>362</v>
+      </c>
+      <c r="G8">
+        <v>5.03</v>
+      </c>
+      <c r="H8">
+        <v>0.11</v>
+      </c>
+      <c r="I8">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J8">
-        <v>2.21</v>
+        <v>9.69</v>
       </c>
       <c r="K8">
+        <v>17.47</v>
+      </c>
+      <c r="L8">
+        <v>2.9</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>4.5</v>
+      </c>
+      <c r="P8">
         <v>0.5</v>
-      </c>
-      <c r="L8">
-        <v>0.86</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>0.4</v>
-      </c>
-      <c r="O8">
-        <v>1.46</v>
       </c>
       <c r="S8">
         <v>0.3</v>
       </c>
+      <c r="U8">
+        <v>0.9</v>
+      </c>
       <c r="V8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y8">
-        <v>0.15</v>
-      </c>
-      <c r="AB8">
-        <v>0.5</v>
+        <v>2.1</v>
+      </c>
+      <c r="AA8">
+        <v>0.13</v>
       </c>
       <c r="AH8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>146</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>59</v>
-      </c>
       <c r="AL8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AM8">
+        <v>8</v>
+      </c>
+      <c r="AN8">
         <v>14</v>
-      </c>
-      <c r="AN8">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B9">
-        <v>42.469589999999897</v>
+        <v>42.490485</v>
       </c>
       <c r="C9">
-        <v>43.220968999999897</v>
+        <v>43.221583000000003</v>
       </c>
       <c r="D9">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E9">
-        <v>6.73</v>
+        <v>3.25</v>
       </c>
       <c r="F9">
-        <v>234.4</v>
-      </c>
-      <c r="G9">
-        <v>0.43</v>
-      </c>
-      <c r="H9">
-        <v>0.18</v>
-      </c>
-      <c r="I9">
-        <v>0.32</v>
+        <v>453.9</v>
       </c>
       <c r="J9">
-        <v>5.37</v>
+        <v>3.16</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>0.83</v>
+        <v>0.6</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O9">
-        <v>4.43</v>
-      </c>
-      <c r="P9">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
         <v>0.2</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="W9">
-        <v>1.7</v>
+        <v>0.4</v>
+      </c>
+      <c r="AA9">
+        <v>0.05</v>
+      </c>
+      <c r="AD9">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AH9">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>146</v>
       </c>
       <c r="AJ9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AL9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AM9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AN9">
-        <v>22</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B10">
-        <v>42.472442000000001</v>
+        <v>42.490665</v>
       </c>
       <c r="C10">
-        <v>43.2212719999999</v>
+        <v>43.224412999999899</v>
+      </c>
+      <c r="D10">
+        <v>0.88</v>
       </c>
       <c r="E10">
-        <v>5.87</v>
+        <v>7.11</v>
       </c>
       <c r="F10">
-        <v>167.4</v>
-      </c>
-      <c r="G10">
-        <v>0.21</v>
-      </c>
-      <c r="H10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I10">
-        <v>0.28999999999999998</v>
+        <v>453.6</v>
       </c>
       <c r="J10">
-        <v>2.41</v>
+        <v>7.92</v>
       </c>
       <c r="K10">
-        <v>0.98</v>
+        <v>0.2</v>
       </c>
       <c r="L10">
-        <v>0.65</v>
+        <v>1.03</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="O10">
-        <v>9.3699999999999992</v>
+        <v>3.64</v>
       </c>
       <c r="S10">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W10">
-        <v>1.6</v>
-      </c>
-      <c r="Z10">
-        <v>0.48</v>
+        <v>1.8</v>
+      </c>
+      <c r="AG10">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH10">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>146</v>
       </c>
       <c r="AJ10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AL10">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="AM10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN10">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B11">
-        <v>42.480438999999897</v>
+        <v>42.490597999999899</v>
       </c>
       <c r="C11">
-        <v>43.218026000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.38</v>
+        <v>43.224366000000003</v>
       </c>
       <c r="E11">
-        <v>4.55</v>
+        <v>0.26</v>
       </c>
       <c r="F11">
-        <v>203.1</v>
+        <v>418.8</v>
       </c>
       <c r="J11">
-        <v>6.91</v>
+        <v>0.19</v>
       </c>
       <c r="K11">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="L11">
-        <v>1.01</v>
-      </c>
-      <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
         <v>0.1</v>
       </c>
       <c r="O11">
-        <v>1.82</v>
-      </c>
-      <c r="Q11">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="S11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U11">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="V11">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W11">
-        <v>2.2000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="Z11">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AH11">
         <v>3</v>
       </c>
       <c r="AJ11" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="AL11">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AM11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN11">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12">
-        <v>42.476743999999897</v>
-      </c>
-      <c r="C12">
-        <v>43.21978</v>
-      </c>
-      <c r="E12">
-        <v>5.55</v>
-      </c>
-      <c r="F12">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.22</v>
-      </c>
-      <c r="H12">
-        <v>0.24</v>
-      </c>
-      <c r="J12">
-        <v>2.68</v>
-      </c>
-      <c r="K12">
-        <v>0.89</v>
-      </c>
-      <c r="L12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="M12">
+      <c r="A12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42.490473000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43.224142999999899</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="F12" s="2">
+        <v>418.7</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="2">
         <v>0.2</v>
       </c>
-      <c r="N12">
-        <v>0.9</v>
-      </c>
-      <c r="O12">
-        <v>7.2</v>
-      </c>
-      <c r="R12">
-        <v>0.2</v>
-      </c>
-      <c r="S12">
-        <v>0.5</v>
-      </c>
-      <c r="V12">
-        <v>1.2</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="AH12">
-        <v>6</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL12">
-        <v>59</v>
-      </c>
-      <c r="AM12">
-        <v>10</v>
-      </c>
-      <c r="AN12">
-        <v>20</v>
-      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2">
+        <v>61</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B13">
-        <v>42.463645</v>
+        <v>42.490479000000001</v>
       </c>
       <c r="C13">
-        <v>43.220910000000003</v>
+        <v>43.223886</v>
+      </c>
+      <c r="D13">
+        <v>0.68</v>
       </c>
       <c r="E13">
-        <v>5.14</v>
+        <v>2.6</v>
       </c>
       <c r="F13">
-        <v>154.6</v>
+        <v>455.7</v>
       </c>
       <c r="J13">
-        <v>3.25</v>
+        <v>3.47</v>
       </c>
       <c r="K13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.59</v>
+      </c>
+      <c r="N13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O13">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="S13">
         <v>0.2</v>
       </c>
-      <c r="L13">
-        <v>0.3</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>10.11</v>
-      </c>
-      <c r="S13">
-        <v>0.3</v>
-      </c>
       <c r="V13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W13">
-        <v>0.8</v>
+        <v>2.04</v>
       </c>
       <c r="AH13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK13" t="s">
         <v>146</v>
       </c>
       <c r="AL13">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AM13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN13">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B14">
-        <v>42.462518000000003</v>
+        <v>42.493018999999897</v>
       </c>
       <c r="C14">
-        <v>43.220208</v>
+        <v>43.223861999999897</v>
+      </c>
+      <c r="D14">
+        <v>1.93</v>
       </c>
       <c r="E14">
-        <v>6.73</v>
+        <v>5.96</v>
       </c>
       <c r="F14">
-        <v>228.2</v>
+        <v>412.3</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
       </c>
       <c r="J14">
-        <v>2.5499999999999998</v>
+        <v>7.67</v>
       </c>
       <c r="K14">
-        <v>0.63</v>
+        <v>0.7</v>
+      </c>
+      <c r="L14">
+        <v>1.05</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>0.1</v>
+        <v>6.45</v>
       </c>
       <c r="S14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="V14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W14">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="AH14">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>146</v>
       </c>
       <c r="AJ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK14" t="s">
         <v>146</v>
       </c>
-      <c r="AK14" t="s">
-        <v>59</v>
-      </c>
       <c r="AL14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AM14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AN14">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B15">
-        <v>42.467986000000003</v>
+        <v>42.490423</v>
       </c>
       <c r="C15">
-        <v>43.220382999999899</v>
-      </c>
-      <c r="D15">
-        <v>0.21</v>
+        <v>43.223751999999898</v>
       </c>
       <c r="E15">
-        <v>4.0599999999999996</v>
+        <v>1.21</v>
       </c>
       <c r="F15">
-        <v>201.65</v>
-      </c>
-      <c r="H15">
-        <v>1.2</v>
+        <v>417.85</v>
       </c>
       <c r="J15">
-        <v>8.4600000000000009</v>
+        <v>1.06</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="L15">
-        <v>0.25</v>
-      </c>
-      <c r="M15">
+        <v>0.4</v>
+      </c>
+      <c r="N15">
         <v>0.1</v>
       </c>
-      <c r="N15">
-        <v>0.3</v>
-      </c>
       <c r="O15">
-        <v>3.23</v>
-      </c>
-      <c r="P15">
-        <v>0.3</v>
-      </c>
-      <c r="Q15">
-        <v>0.14000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="R15">
         <v>0.4</v>
       </c>
       <c r="S15">
+        <v>0.2</v>
+      </c>
+      <c r="V15">
         <v>0.3</v>
       </c>
-      <c r="V15">
-        <v>0.7</v>
-      </c>
       <c r="W15">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
+        <v>0.12</v>
+      </c>
+      <c r="AE15">
+        <v>0.05</v>
       </c>
       <c r="AH15">
         <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AL15">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AN15">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>42.468826</v>
+        <v>42.490167999999898</v>
       </c>
       <c r="C16">
-        <v>43.2206949999999</v>
-      </c>
-      <c r="D16">
-        <v>0.81</v>
-      </c>
-      <c r="E16">
-        <v>4.7699999999999996</v>
+        <v>43.2234389999999</v>
       </c>
       <c r="F16">
-        <v>247</v>
-      </c>
-      <c r="G16">
-        <v>0.16</v>
-      </c>
-      <c r="H16">
-        <v>0.19</v>
+        <v>449.4</v>
       </c>
       <c r="J16">
-        <v>3.15</v>
+        <v>0.64</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L16">
-        <v>0.51</v>
-      </c>
-      <c r="M16">
         <v>0.2</v>
       </c>
-      <c r="N16">
-        <v>0.5</v>
-      </c>
       <c r="O16">
-        <v>2.63</v>
+        <v>0.37</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
       </c>
       <c r="S16">
         <v>0.2</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="AF16">
-        <v>0.11</v>
+        <v>0.3</v>
+      </c>
+      <c r="AD16">
+        <v>0.06</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="AJ16" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="AL16">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AM16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN16">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B17">
-        <v>42.472641000000003</v>
+        <v>42.490214000000002</v>
       </c>
       <c r="C17">
-        <v>43.220311000000002</v>
+        <v>43.2232109999999</v>
       </c>
       <c r="E17">
-        <v>6.32</v>
+        <v>5.72</v>
       </c>
       <c r="F17">
-        <v>159.9</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
+        <v>417.8</v>
       </c>
       <c r="J17">
-        <v>5.59</v>
+        <v>1.28</v>
       </c>
       <c r="K17">
-        <v>1.23</v>
+        <v>3.43</v>
       </c>
       <c r="L17">
-        <v>0.71</v>
+        <v>0.2</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O17">
-        <v>5.03</v>
-      </c>
-      <c r="P17">
+        <v>0.34</v>
+      </c>
+      <c r="Q17">
         <v>0.3</v>
       </c>
+      <c r="R17">
+        <v>0.1</v>
+      </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="W17">
-        <v>1.9</v>
+        <v>0.36</v>
       </c>
       <c r="AH17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AL17">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AM17">
         <v>14</v>
@@ -5421,1655 +5459,1707 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>42.472571000000002</v>
+        <v>42.490208000000003</v>
       </c>
       <c r="C18">
-        <v>43.220233999999898</v>
+        <v>43.222867000000001</v>
       </c>
       <c r="E18">
-        <v>10.210000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="F18">
-        <v>304.7</v>
-      </c>
-      <c r="G18">
-        <v>0.18</v>
-      </c>
-      <c r="H18">
-        <v>0.28000000000000003</v>
+        <v>428.3</v>
       </c>
       <c r="J18">
-        <v>6.31</v>
+        <v>11.42</v>
       </c>
       <c r="K18">
-        <v>3.32</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N18">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="O18">
-        <v>7.14</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="P18">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="S18">
+        <v>0.2</v>
+      </c>
+      <c r="V18">
         <v>0.3</v>
       </c>
-      <c r="V18">
-        <v>0.7</v>
-      </c>
       <c r="W18">
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
+      </c>
+      <c r="AC18">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>0.15</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>142</v>
       </c>
       <c r="AJ18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AL18">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN18">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B19">
-        <v>42.477587999999898</v>
+        <v>42.490279999999899</v>
       </c>
       <c r="C19">
-        <v>43.216532999999899</v>
+        <v>43.222518000000001</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="E19">
-        <v>7.86</v>
+        <v>1.37</v>
       </c>
       <c r="F19">
-        <v>384.6</v>
+        <v>406.5</v>
       </c>
       <c r="J19">
-        <v>5.0199999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K19">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="L19">
-        <v>0.16</v>
+        <v>1.2</v>
       </c>
       <c r="N19">
-        <v>3.36</v>
+        <v>0.8</v>
       </c>
       <c r="O19">
-        <v>2.89</v>
-      </c>
-      <c r="Q19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P19">
         <v>0.6</v>
       </c>
       <c r="S19">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="T19">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="U19">
         <v>0.9</v>
       </c>
       <c r="V19">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W19">
-        <v>0.8</v>
-      </c>
-      <c r="X19">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AH19">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>146</v>
       </c>
       <c r="AJ19" t="s">
         <v>144</v>
       </c>
       <c r="AL19">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AM19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AN19">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B20">
-        <v>42.487506000000003</v>
+        <v>42.490420999999898</v>
       </c>
       <c r="C20">
-        <v>43.218822000000003</v>
-      </c>
-      <c r="D20">
-        <v>0.46</v>
+        <v>43.222085999999898</v>
       </c>
       <c r="E20">
-        <v>8.8800000000000008</v>
+        <v>2.73</v>
       </c>
       <c r="F20">
-        <v>166</v>
+        <v>408.3</v>
+      </c>
+      <c r="I20">
+        <v>3.4</v>
       </c>
       <c r="J20">
-        <v>10.029999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="K20">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="L20">
-        <v>0.69</v>
+        <v>1.7</v>
+      </c>
+      <c r="M20">
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O20">
-        <v>2.11</v>
+        <v>1.57</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
       </c>
       <c r="R20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
         <v>0.2</v>
       </c>
-      <c r="V20">
-        <v>0.8</v>
-      </c>
       <c r="W20">
-        <v>1.7</v>
-      </c>
-      <c r="X20">
-        <v>0.15</v>
-      </c>
-      <c r="Y20">
-        <v>0.5</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH20">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>146</v>
       </c>
       <c r="AJ20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AL20">
         <v>59</v>
       </c>
       <c r="AM20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AN20">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B21">
-        <v>42.490695000000002</v>
+        <v>42.490073000000002</v>
       </c>
       <c r="C21">
-        <v>43.224632999999898</v>
-      </c>
-      <c r="D21">
-        <v>0.42</v>
+        <v>43.221850000000003</v>
       </c>
       <c r="E21">
-        <v>4.51</v>
+        <v>6.93</v>
       </c>
       <c r="F21">
-        <v>125.3</v>
-      </c>
-      <c r="G21">
-        <v>0.24</v>
-      </c>
-      <c r="H21">
-        <v>0.87</v>
-      </c>
-      <c r="I21">
-        <v>0.38</v>
+        <v>425.8</v>
       </c>
       <c r="J21">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="K21">
-        <v>3.02</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>0.37</v>
-      </c>
-      <c r="M21">
-        <v>0.08</v>
+        <v>3.9</v>
       </c>
       <c r="N21">
-        <v>0.56999999999999995</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>3.72</v>
-      </c>
-      <c r="R21">
-        <v>0.2</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="S21">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="V21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W21">
-        <v>0.3</v>
-      </c>
-      <c r="AA21">
-        <v>0.34</v>
-      </c>
-      <c r="AG21">
-        <v>0.15</v>
+        <v>1.4</v>
       </c>
       <c r="AH21">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="AL21">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AM21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN21">
-        <v>19</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B22">
-        <v>42.490015</v>
+        <v>42.489967999999898</v>
       </c>
       <c r="C22">
-        <v>43.224711999999897</v>
-      </c>
-      <c r="D22">
+        <v>43.221494</v>
+      </c>
+      <c r="E22">
+        <v>3.56</v>
+      </c>
+      <c r="F22">
+        <v>447.7</v>
+      </c>
+      <c r="J22">
+        <v>2.68</v>
+      </c>
+      <c r="K22">
+        <v>0.79</v>
+      </c>
+      <c r="L22">
+        <v>0.4</v>
+      </c>
+      <c r="M22">
         <v>0.3</v>
       </c>
-      <c r="E22">
-        <v>1.52</v>
-      </c>
-      <c r="F22">
-        <v>298</v>
-      </c>
-      <c r="H22">
-        <v>0.86</v>
-      </c>
-      <c r="J22">
-        <v>2.4</v>
-      </c>
-      <c r="K22">
-        <v>1.72</v>
-      </c>
-      <c r="L22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="R22">
         <v>0.1</v>
       </c>
-      <c r="N22">
-        <v>0.12</v>
-      </c>
-      <c r="O22">
-        <v>4.12</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>0.1</v>
-      </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2</v>
       </c>
-      <c r="S22">
-        <v>0.12</v>
-      </c>
-      <c r="T22">
-        <v>0.4</v>
-      </c>
       <c r="U22">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="V22">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="W22">
-        <v>0.8</v>
-      </c>
-      <c r="Z22">
-        <v>0.41</v>
-      </c>
-      <c r="AA22">
-        <v>0.41</v>
+        <v>0.3</v>
+      </c>
+      <c r="AE22">
+        <v>0.3</v>
       </c>
       <c r="AH22">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>146</v>
       </c>
       <c r="AJ22" t="s">
         <v>146</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22">
+        <v>62</v>
+      </c>
+      <c r="AM22">
+        <v>7</v>
+      </c>
+      <c r="AN22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42.489991000000003</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43.22139</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="F23" s="2">
+        <v>424.8</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AL22">
-        <v>56</v>
-      </c>
-      <c r="AM22">
-        <v>6</v>
-      </c>
-      <c r="AN22">
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2">
+        <v>50</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42.489663</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43.224527000000002</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="F24" s="2">
+        <v>427.3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2">
+        <v>59</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN24" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23">
-        <v>42.488481</v>
-      </c>
-      <c r="C23">
-        <v>43.225448999999898</v>
-      </c>
-      <c r="D23">
-        <v>0.43</v>
-      </c>
-      <c r="E23">
-        <v>6.66</v>
-      </c>
-      <c r="F23">
-        <v>219.7</v>
-      </c>
-      <c r="G23">
-        <v>0.25</v>
-      </c>
-      <c r="H23">
-        <v>0.35</v>
-      </c>
-      <c r="I23">
-        <v>0.34</v>
-      </c>
-      <c r="J23">
-        <v>5.21</v>
-      </c>
-      <c r="K23">
-        <v>1.75</v>
-      </c>
-      <c r="L23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M23">
-        <v>0.2</v>
-      </c>
-      <c r="N23">
-        <v>1.2</v>
-      </c>
-      <c r="O23">
-        <v>6.72</v>
-      </c>
-      <c r="P23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q23">
-        <v>0.02</v>
-      </c>
-      <c r="R23">
-        <v>0.4</v>
-      </c>
-      <c r="S23">
-        <v>1.3</v>
-      </c>
-      <c r="V23">
-        <v>0.3</v>
-      </c>
-      <c r="W23">
-        <v>1.5</v>
-      </c>
-      <c r="AH23">
-        <v>12</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL23">
-        <v>61</v>
-      </c>
-      <c r="AM23">
-        <v>6</v>
-      </c>
-      <c r="AN23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24">
-        <v>42.493332000000002</v>
-      </c>
-      <c r="C24">
-        <v>43.225065000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.69</v>
-      </c>
-      <c r="E24">
-        <v>7.49</v>
-      </c>
-      <c r="F24">
-        <v>173.5</v>
-      </c>
-      <c r="H24">
-        <v>1.3</v>
-      </c>
-      <c r="J24">
-        <v>3.55</v>
-      </c>
-      <c r="K24">
-        <v>0.74</v>
-      </c>
-      <c r="L24">
-        <v>1.55</v>
-      </c>
-      <c r="M24">
-        <v>0.3</v>
-      </c>
-      <c r="N24">
-        <v>1.7</v>
-      </c>
-      <c r="O24">
-        <v>9.06</v>
-      </c>
-      <c r="S24">
-        <v>0.9</v>
-      </c>
-      <c r="U24">
-        <v>0.39</v>
-      </c>
-      <c r="V24">
-        <v>0.9</v>
-      </c>
-      <c r="W24">
-        <v>1.5</v>
-      </c>
-      <c r="AH24">
-        <v>11</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL24">
-        <v>55</v>
-      </c>
-      <c r="AM24">
-        <v>9</v>
-      </c>
-      <c r="AN24">
-        <v>15</v>
-      </c>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="B25">
-        <v>42.491751999999899</v>
+        <v>42.492885000000001</v>
       </c>
       <c r="C25">
-        <v>43.224445000000003</v>
+        <v>43.223123999999899</v>
       </c>
       <c r="D25">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="E25">
-        <v>4.71</v>
+        <v>2.95</v>
       </c>
       <c r="F25">
-        <v>114.2</v>
-      </c>
-      <c r="G25">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.6</v>
+      </c>
+      <c r="J25">
+        <v>0.54</v>
+      </c>
+      <c r="K25">
+        <v>0.15</v>
+      </c>
+      <c r="L25">
+        <v>0.32</v>
+      </c>
+      <c r="N25">
+        <v>2.4</v>
+      </c>
+      <c r="O25">
+        <v>33.93</v>
+      </c>
+      <c r="S25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V25">
+        <v>1.2</v>
+      </c>
+      <c r="W25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H25">
-        <v>0.32</v>
-      </c>
-      <c r="I25">
-        <v>0.18</v>
-      </c>
-      <c r="J25">
-        <v>2.64</v>
-      </c>
-      <c r="K25">
-        <v>0.72</v>
-      </c>
-      <c r="L25">
-        <v>0.66</v>
-      </c>
-      <c r="M25">
-        <v>0.2</v>
-      </c>
-      <c r="N25">
-        <v>1.7</v>
-      </c>
-      <c r="O25">
-        <v>6.35</v>
-      </c>
-      <c r="R25">
-        <v>0.2</v>
-      </c>
-      <c r="S25">
+      <c r="AB25">
         <v>0.9</v>
-      </c>
-      <c r="T25">
-        <v>0.1</v>
-      </c>
-      <c r="U25">
-        <v>0.27</v>
-      </c>
-      <c r="V25">
-        <v>0.6</v>
-      </c>
-      <c r="W25">
-        <v>0.7</v>
-      </c>
-      <c r="AA25">
-        <v>0.32</v>
       </c>
       <c r="AH25">
         <v>8</v>
       </c>
+      <c r="AI25" t="s">
+        <v>146</v>
+      </c>
       <c r="AJ25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AL25">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AN25">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B26">
-        <v>42.488796000000001</v>
+        <v>42.4893369999999</v>
       </c>
       <c r="C26">
-        <v>43.223865000000004</v>
+        <v>43.223858</v>
       </c>
       <c r="D26">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="E26">
-        <v>7.41</v>
+        <v>6.42</v>
       </c>
       <c r="F26">
-        <v>311.89999999999998</v>
-      </c>
-      <c r="H26">
-        <v>0.56000000000000005</v>
+        <v>415.03</v>
       </c>
       <c r="J26">
-        <v>7.74</v>
+        <v>5.62</v>
       </c>
       <c r="K26">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="L26">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="M26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O26">
-        <v>5.59</v>
-      </c>
-      <c r="R26">
-        <v>0.2</v>
+        <v>7.05</v>
       </c>
       <c r="S26">
-        <v>1.2</v>
-      </c>
-      <c r="U26">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="V26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
-      </c>
-      <c r="X26">
-        <v>0.2</v>
-      </c>
-      <c r="AD26">
-        <v>0.12</v>
+        <v>0.7</v>
+      </c>
+      <c r="AB26">
+        <v>0.6</v>
       </c>
       <c r="AH26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AL26">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="AM26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN26">
-        <v>21</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B27">
-        <v>42.488534000000001</v>
+        <v>42.488912999999897</v>
       </c>
       <c r="C27">
-        <v>43.223379999999899</v>
-      </c>
-      <c r="D27">
-        <v>1.5</v>
+        <v>43.223143</v>
       </c>
       <c r="E27">
-        <v>6.41</v>
+        <v>1.99</v>
       </c>
       <c r="F27">
-        <v>206.9</v>
+        <v>415.1</v>
       </c>
       <c r="H27">
-        <v>0.46</v>
-      </c>
-      <c r="I27">
-        <v>0.35</v>
+        <v>1.4</v>
       </c>
       <c r="J27">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.2</v>
+      </c>
+      <c r="O27">
         <v>1.4</v>
       </c>
-      <c r="L27">
-        <v>1.04</v>
-      </c>
-      <c r="N27">
-        <v>0.26</v>
-      </c>
-      <c r="O27">
-        <v>10.29</v>
-      </c>
-      <c r="R27">
+      <c r="P27">
         <v>0.3</v>
       </c>
       <c r="S27">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="V27">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="W27">
-        <v>2.7</v>
+        <v>0.8</v>
+      </c>
+      <c r="X27">
+        <v>0.7</v>
       </c>
       <c r="AH27">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AJ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AL27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AN27">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B28">
-        <v>42.488343</v>
+        <v>42.488799</v>
       </c>
       <c r="C28">
-        <v>43.223039999999898</v>
+        <v>43.222403</v>
       </c>
       <c r="D28">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="E28">
-        <v>6.92</v>
+        <v>4.42</v>
       </c>
       <c r="F28">
-        <v>193.8</v>
+        <v>414.3</v>
       </c>
       <c r="J28">
-        <v>4.0199999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="K28">
-        <v>2.11</v>
+        <v>0.17</v>
       </c>
       <c r="L28">
-        <v>1.18</v>
+        <v>0.2</v>
       </c>
       <c r="M28">
+        <v>0.13</v>
+      </c>
+      <c r="N28">
+        <v>1.02</v>
+      </c>
+      <c r="O28">
+        <v>3.32</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.06</v>
+      </c>
+      <c r="U28">
         <v>0.3</v>
       </c>
-      <c r="N28">
-        <v>4.3</v>
-      </c>
-      <c r="O28">
-        <v>11.29</v>
-      </c>
-      <c r="S28">
-        <v>0.6</v>
-      </c>
       <c r="V28">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="W28">
-        <v>1.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="AB28">
+        <v>0.45</v>
       </c>
       <c r="AD28">
         <v>0.12</v>
       </c>
       <c r="AH28">
+        <v>10</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL28">
+        <v>54</v>
+      </c>
+      <c r="AM28">
+        <v>8</v>
+      </c>
+      <c r="AN28">
         <v>24</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL28">
-        <v>55</v>
-      </c>
-      <c r="AM28">
-        <v>4</v>
-      </c>
-      <c r="AN28">
-        <v>12</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B29">
-        <v>42.488903999999899</v>
+        <v>42.488987000000002</v>
       </c>
       <c r="C29">
-        <v>43.221727999999899</v>
+        <v>43.221767</v>
       </c>
       <c r="D29">
-        <v>1.1100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E29">
-        <v>4.4400000000000004</v>
+        <v>3.95</v>
       </c>
       <c r="F29">
-        <v>184.3</v>
+        <v>416.2</v>
       </c>
       <c r="J29">
-        <v>3.31</v>
+        <v>2.62</v>
       </c>
       <c r="K29">
-        <v>1.94</v>
+        <v>0.12</v>
       </c>
       <c r="L29">
-        <v>2.7</v>
+        <v>0.11</v>
+      </c>
+      <c r="M29">
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>0.8</v>
+        <v>1.72</v>
       </c>
       <c r="O29">
-        <v>2.31</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
-      </c>
-      <c r="R29">
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="S29">
-        <v>0.8</v>
-      </c>
-      <c r="T29">
         <v>0.2</v>
       </c>
-      <c r="U29">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="V29">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
-      </c>
-      <c r="X29">
-        <v>0.19</v>
+        <v>3.05</v>
+      </c>
+      <c r="AC29">
+        <v>0.15</v>
       </c>
       <c r="AH29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="AJ29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AL29">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AM29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AN29">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B30">
-        <v>42.490665</v>
+        <v>42.489550000000001</v>
       </c>
       <c r="C30">
-        <v>43.224412999999899</v>
+        <v>43.222591999999899</v>
       </c>
       <c r="D30">
-        <v>0.88</v>
+        <v>0.15</v>
       </c>
       <c r="E30">
-        <v>7.11</v>
+        <v>3.81</v>
       </c>
       <c r="F30">
-        <v>453.6</v>
+        <v>398.9</v>
       </c>
       <c r="J30">
-        <v>7.92</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="K30">
+        <v>0.8</v>
+      </c>
+      <c r="L30">
+        <v>1.42</v>
+      </c>
+      <c r="M30">
+        <v>0.3</v>
+      </c>
+      <c r="N30">
         <v>0.2</v>
       </c>
-      <c r="L30">
-        <v>1.03</v>
-      </c>
-      <c r="M30">
+      <c r="O30">
+        <v>1.28</v>
+      </c>
+      <c r="Q30">
         <v>0.1</v>
       </c>
-      <c r="N30">
-        <v>0.6</v>
-      </c>
-      <c r="O30">
-        <v>3.64</v>
+      <c r="R30">
+        <v>0.1</v>
       </c>
       <c r="S30">
         <v>0.2</v>
       </c>
       <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.6</v>
+      </c>
+      <c r="Y30">
         <v>0.5</v>
       </c>
-      <c r="W30">
-        <v>1.8</v>
-      </c>
-      <c r="AG30">
-        <v>7.0000000000000007E-2</v>
+      <c r="AB30">
+        <v>0.6</v>
       </c>
       <c r="AH30">
-        <v>15</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="s">
         <v>142</v>
       </c>
       <c r="AL30">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AM30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AN30">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B31">
-        <v>42.490597999999899</v>
+        <v>42.49259</v>
       </c>
       <c r="C31">
-        <v>43.224366000000003</v>
+        <v>43.222206</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
       </c>
       <c r="E31">
-        <v>0.26</v>
+        <v>1.04</v>
       </c>
       <c r="F31">
-        <v>418.8</v>
+        <v>317.10000000000002</v>
+      </c>
+      <c r="H31">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I31">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J31">
-        <v>0.19</v>
+        <v>1.04</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="L31">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="N31">
         <v>0.1</v>
       </c>
       <c r="O31">
-        <v>0.8</v>
+        <v>2.36</v>
+      </c>
+      <c r="R31">
+        <v>0.15</v>
       </c>
       <c r="S31">
-        <v>0.1</v>
+        <v>0.22</v>
+      </c>
+      <c r="T31">
+        <v>0.01</v>
       </c>
       <c r="U31">
         <v>0.4</v>
       </c>
       <c r="V31">
+        <v>0.3</v>
+      </c>
+      <c r="W31">
+        <v>0.6</v>
+      </c>
+      <c r="Z31">
+        <v>0.08</v>
+      </c>
+      <c r="AC31">
+        <v>0.06</v>
+      </c>
+      <c r="AG31">
+        <v>0.11</v>
+      </c>
+      <c r="AH31">
+        <v>10</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL31">
+        <v>63</v>
+      </c>
+      <c r="AM31">
+        <v>8</v>
+      </c>
+      <c r="AN31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32">
+        <v>42.4916079999999</v>
+      </c>
+      <c r="C32">
+        <v>43.221514999999897</v>
+      </c>
+      <c r="D32">
+        <v>0.25</v>
+      </c>
+      <c r="E32">
+        <v>5.55</v>
+      </c>
+      <c r="F32">
+        <v>423.2</v>
+      </c>
+      <c r="H32">
+        <v>0.13</v>
+      </c>
+      <c r="I32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J32">
+        <v>7.17</v>
+      </c>
+      <c r="K32">
+        <v>0.39</v>
+      </c>
+      <c r="L32">
+        <v>1.68</v>
+      </c>
+      <c r="N32">
+        <v>0.3</v>
+      </c>
+      <c r="O32">
+        <v>1.8</v>
+      </c>
+      <c r="Q32">
         <v>0.2</v>
       </c>
-      <c r="W31">
-        <v>0.15</v>
-      </c>
-      <c r="Z31">
-        <v>0.04</v>
-      </c>
-      <c r="AH31">
-        <v>3</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL31">
-        <v>76</v>
-      </c>
-      <c r="AM31">
-        <v>3</v>
-      </c>
-      <c r="AN31">
+      <c r="R32">
+        <v>0.107</v>
+      </c>
+      <c r="S32">
+        <v>0.2</v>
+      </c>
+      <c r="U32">
+        <v>0.6</v>
+      </c>
+      <c r="W32">
+        <v>1.2</v>
+      </c>
+      <c r="Z32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA32">
+        <v>0.08</v>
+      </c>
+      <c r="AD32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH32">
+        <v>10</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL32">
+        <v>60</v>
+      </c>
+      <c r="AM32">
+        <v>10</v>
+      </c>
+      <c r="AN32">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="2">
-        <v>42.490473000000001</v>
-      </c>
-      <c r="C32" s="2">
-        <v>43.224142999999899</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="F32" s="2">
-        <v>418.7</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2">
-        <v>9.17</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="L32" s="2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33">
+        <v>42.492139000000002</v>
+      </c>
+      <c r="C33">
+        <v>43.224356999999898</v>
+      </c>
+      <c r="D33">
+        <v>0.41</v>
+      </c>
+      <c r="E33">
+        <v>6.87</v>
+      </c>
+      <c r="F33">
+        <v>377.6</v>
+      </c>
+      <c r="H33">
+        <v>0.6</v>
+      </c>
+      <c r="I33">
+        <v>0.2</v>
+      </c>
+      <c r="J33">
+        <v>8.59</v>
+      </c>
+      <c r="K33">
+        <v>1.26</v>
+      </c>
+      <c r="L33">
+        <v>0.22</v>
+      </c>
+      <c r="M33">
+        <v>0.1</v>
+      </c>
+      <c r="N33">
+        <v>0.4</v>
+      </c>
+      <c r="O33">
+        <v>2.97</v>
+      </c>
+      <c r="P33">
+        <v>0.3</v>
+      </c>
+      <c r="R33">
+        <v>0.2</v>
+      </c>
+      <c r="S33">
+        <v>0.3</v>
+      </c>
+      <c r="U33">
+        <v>0.11</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.4</v>
+      </c>
+      <c r="AH33">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL33">
+        <v>61</v>
+      </c>
+      <c r="AM33">
+        <v>13</v>
+      </c>
+      <c r="AN33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34">
+        <v>42.491627999999899</v>
+      </c>
+      <c r="C34">
+        <v>43.224062000000004</v>
+      </c>
+      <c r="D34">
+        <v>0.38</v>
+      </c>
+      <c r="F34">
+        <v>473.2</v>
+      </c>
+      <c r="J34">
+        <v>2.48</v>
+      </c>
+      <c r="K34">
+        <v>0.41</v>
+      </c>
+      <c r="L34">
+        <v>0.6</v>
+      </c>
+      <c r="N34">
+        <v>0.17</v>
+      </c>
+      <c r="O34">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P34">
+        <v>0.4</v>
+      </c>
+      <c r="Q34">
         <v>0.12</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S32" s="2">
+      <c r="R34">
         <v>0.2</v>
       </c>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2">
+      <c r="S34">
+        <v>0.7</v>
+      </c>
+      <c r="V34">
+        <v>0.4</v>
+      </c>
+      <c r="W34">
+        <v>0.7</v>
+      </c>
+      <c r="AH34">
+        <v>9</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL34">
+        <v>68</v>
+      </c>
+      <c r="AM34">
+        <v>9</v>
+      </c>
+      <c r="AN34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <v>42.491681</v>
+      </c>
+      <c r="C35">
+        <v>43.223903999999898</v>
+      </c>
+      <c r="D35">
+        <v>1.04</v>
+      </c>
+      <c r="E35">
+        <v>6.73</v>
+      </c>
+      <c r="F35">
+        <v>351.3</v>
+      </c>
+      <c r="J35">
+        <v>7.43</v>
+      </c>
+      <c r="K35">
+        <v>0.78</v>
+      </c>
+      <c r="L35">
+        <v>0.6</v>
+      </c>
+      <c r="N35">
+        <v>0.6</v>
+      </c>
+      <c r="O35">
+        <v>2.87</v>
+      </c>
+      <c r="P35">
         <v>0.3</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2">
-        <v>9</v>
-      </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2">
-        <v>61</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>9</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>16</v>
-      </c>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33">
-        <v>42.490479000000001</v>
-      </c>
-      <c r="C33">
-        <v>43.223886</v>
-      </c>
-      <c r="D33">
-        <v>0.68</v>
-      </c>
-      <c r="E33">
-        <v>2.6</v>
-      </c>
-      <c r="F33">
-        <v>455.7</v>
-      </c>
-      <c r="J33">
-        <v>3.47</v>
-      </c>
-      <c r="K33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L33">
-        <v>0.59</v>
-      </c>
-      <c r="N33">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O33">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="S33">
-        <v>0.2</v>
-      </c>
-      <c r="V33">
-        <v>0.1</v>
-      </c>
-      <c r="W33">
-        <v>2.04</v>
-      </c>
-      <c r="AH33">
-        <v>8</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL33">
-        <v>67</v>
-      </c>
-      <c r="AM33">
-        <v>9</v>
-      </c>
-      <c r="AN33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34">
-        <v>42.490423</v>
-      </c>
-      <c r="C34">
-        <v>43.223751999999898</v>
-      </c>
-      <c r="E34">
-        <v>1.21</v>
-      </c>
-      <c r="F34">
-        <v>417.85</v>
-      </c>
-      <c r="J34">
-        <v>1.06</v>
-      </c>
-      <c r="K34">
-        <v>0.39</v>
-      </c>
-      <c r="L34">
-        <v>0.4</v>
-      </c>
-      <c r="N34">
-        <v>0.1</v>
-      </c>
-      <c r="O34">
-        <v>0.34</v>
-      </c>
-      <c r="R34">
-        <v>0.4</v>
-      </c>
-      <c r="S34">
-        <v>0.2</v>
-      </c>
-      <c r="V34">
-        <v>0.3</v>
-      </c>
-      <c r="W34">
-        <v>0.5</v>
-      </c>
-      <c r="AA34">
-        <v>0.12</v>
-      </c>
-      <c r="AE34">
-        <v>0.05</v>
-      </c>
-      <c r="AH34">
-        <v>8</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL34">
-        <v>62</v>
-      </c>
-      <c r="AM34">
-        <v>11</v>
-      </c>
-      <c r="AN34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35">
-        <v>42.490167999999898</v>
-      </c>
-      <c r="C35">
-        <v>43.2234389999999</v>
-      </c>
-      <c r="F35">
-        <v>449.4</v>
-      </c>
-      <c r="J35">
-        <v>0.64</v>
-      </c>
-      <c r="K35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L35">
-        <v>0.2</v>
-      </c>
-      <c r="O35">
-        <v>0.37</v>
-      </c>
-      <c r="P35">
-        <v>0.2</v>
       </c>
       <c r="Q35">
         <v>0.1</v>
       </c>
+      <c r="R35">
+        <v>5.5E-2</v>
+      </c>
       <c r="S35">
-        <v>0.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="U35">
+        <v>0.9</v>
       </c>
       <c r="V35">
         <v>0.3</v>
       </c>
       <c r="W35">
+        <v>1.7</v>
+      </c>
+      <c r="Z35">
+        <v>0.1</v>
+      </c>
+      <c r="AH35">
+        <v>8</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL35">
+        <v>56</v>
+      </c>
+      <c r="AM35">
+        <v>10</v>
+      </c>
+      <c r="AN35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <v>42.491481</v>
+      </c>
+      <c r="C36">
+        <v>43.223615000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.31</v>
+      </c>
+      <c r="E36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F36">
+        <v>459.2</v>
+      </c>
+      <c r="J36">
+        <v>2.88</v>
+      </c>
+      <c r="K36">
+        <v>0.47</v>
+      </c>
+      <c r="L36">
         <v>0.3</v>
       </c>
-      <c r="AD35">
-        <v>0.06</v>
-      </c>
-      <c r="AH35">
-        <v>13</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL35">
-        <v>58</v>
-      </c>
-      <c r="AM35">
-        <v>9</v>
-      </c>
-      <c r="AN35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36">
-        <v>42.490214000000002</v>
-      </c>
-      <c r="C36">
-        <v>43.2232109999999</v>
-      </c>
-      <c r="E36">
-        <v>5.72</v>
-      </c>
-      <c r="F36">
-        <v>417.8</v>
-      </c>
-      <c r="J36">
-        <v>1.28</v>
-      </c>
-      <c r="K36">
-        <v>3.43</v>
-      </c>
-      <c r="L36">
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+      <c r="O36">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S36">
         <v>0.2</v>
       </c>
-      <c r="M36">
-        <v>0.5</v>
-      </c>
-      <c r="N36">
-        <v>0.3</v>
-      </c>
-      <c r="O36">
-        <v>0.34</v>
-      </c>
-      <c r="Q36">
-        <v>0.3</v>
-      </c>
-      <c r="R36">
-        <v>0.1</v>
-      </c>
-      <c r="S36">
-        <v>0.15</v>
+      <c r="U36">
+        <v>0.4</v>
       </c>
       <c r="V36">
         <v>0.3</v>
       </c>
       <c r="W36">
-        <v>0.36</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.9</v>
+      </c>
+      <c r="AA36">
+        <v>0.7</v>
       </c>
       <c r="AH36">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>146</v>
       </c>
       <c r="AJ36" t="s">
         <v>146</v>
       </c>
       <c r="AL36">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AM36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AN36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B37">
-        <v>42.490208000000003</v>
+        <v>42.493332000000002</v>
       </c>
       <c r="C37">
-        <v>43.222867000000001</v>
+        <v>43.225065000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.69</v>
       </c>
       <c r="E37">
-        <v>5.34</v>
+        <v>7.49</v>
       </c>
       <c r="F37">
-        <v>428.3</v>
+        <v>173.5</v>
+      </c>
+      <c r="H37">
+        <v>1.3</v>
       </c>
       <c r="J37">
-        <v>11.42</v>
+        <v>3.55</v>
       </c>
       <c r="K37">
+        <v>0.74</v>
+      </c>
+      <c r="L37">
+        <v>1.55</v>
+      </c>
+      <c r="M37">
+        <v>0.3</v>
+      </c>
+      <c r="N37">
+        <v>1.7</v>
+      </c>
+      <c r="O37">
+        <v>9.06</v>
+      </c>
+      <c r="S37">
+        <v>0.9</v>
+      </c>
+      <c r="U37">
+        <v>0.39</v>
+      </c>
+      <c r="V37">
+        <v>0.9</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="AH37">
+        <v>11</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL37">
+        <v>55</v>
+      </c>
+      <c r="AM37">
+        <v>9</v>
+      </c>
+      <c r="AN37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <v>42.491751999999899</v>
+      </c>
+      <c r="C38">
+        <v>43.224445000000003</v>
+      </c>
+      <c r="D38">
+        <v>0.33</v>
+      </c>
+      <c r="E38">
+        <v>4.71</v>
+      </c>
+      <c r="F38">
+        <v>114.2</v>
+      </c>
+      <c r="G38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H38">
+        <v>0.32</v>
+      </c>
+      <c r="I38">
+        <v>0.18</v>
+      </c>
+      <c r="J38">
+        <v>2.64</v>
+      </c>
+      <c r="K38">
+        <v>0.72</v>
+      </c>
+      <c r="L38">
+        <v>0.66</v>
+      </c>
+      <c r="M38">
         <v>0.2</v>
       </c>
-      <c r="L37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N37">
-        <v>0.4</v>
-      </c>
-      <c r="O37">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="P37">
-        <v>0.3</v>
-      </c>
-      <c r="S37">
+      <c r="N38">
+        <v>1.7</v>
+      </c>
+      <c r="O38">
+        <v>6.35</v>
+      </c>
+      <c r="R38">
         <v>0.2</v>
       </c>
-      <c r="V37">
-        <v>0.3</v>
-      </c>
-      <c r="W37">
-        <v>2.04</v>
-      </c>
-      <c r="AC37">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="AD37">
-        <v>0.15</v>
-      </c>
-      <c r="AH37">
+      <c r="S38">
+        <v>0.9</v>
+      </c>
+      <c r="T38">
+        <v>0.1</v>
+      </c>
+      <c r="U38">
+        <v>0.27</v>
+      </c>
+      <c r="V38">
+        <v>0.6</v>
+      </c>
+      <c r="W38">
+        <v>0.7</v>
+      </c>
+      <c r="AA38">
+        <v>0.32</v>
+      </c>
+      <c r="AH38">
         <v>8</v>
       </c>
-      <c r="AI37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL37">
-        <v>61</v>
-      </c>
-      <c r="AM37">
-        <v>7</v>
-      </c>
-      <c r="AN37">
+      <c r="AJ38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL38">
+        <v>66</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38">
-        <v>42.490279999999899</v>
-      </c>
-      <c r="C38">
-        <v>43.222518000000001</v>
-      </c>
-      <c r="D38">
-        <v>0.52</v>
-      </c>
-      <c r="E38">
-        <v>1.37</v>
-      </c>
-      <c r="F38">
-        <v>406.5</v>
-      </c>
-      <c r="J38">
-        <v>0.95</v>
-      </c>
-      <c r="K38">
-        <v>0.15</v>
-      </c>
-      <c r="L38">
-        <v>1.2</v>
-      </c>
-      <c r="N38">
-        <v>0.8</v>
-      </c>
-      <c r="O38">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="P38">
-        <v>0.6</v>
-      </c>
-      <c r="S38">
-        <v>0.2</v>
-      </c>
-      <c r="T38">
-        <v>0.01</v>
-      </c>
-      <c r="U38">
-        <v>0.9</v>
-      </c>
-      <c r="V38">
-        <v>0.4</v>
-      </c>
-      <c r="W38">
-        <v>0.9</v>
-      </c>
-      <c r="AH38">
-        <v>13</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL38">
-        <v>51</v>
-      </c>
-      <c r="AM38">
-        <v>7</v>
-      </c>
-      <c r="AN38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B39">
-        <v>42.490420999999898</v>
+        <v>42.490695000000002</v>
       </c>
       <c r="C39">
-        <v>43.222085999999898</v>
+        <v>43.224632999999898</v>
+      </c>
+      <c r="D39">
+        <v>0.42</v>
       </c>
       <c r="E39">
-        <v>2.73</v>
+        <v>4.51</v>
       </c>
       <c r="F39">
-        <v>408.3</v>
+        <v>125.3</v>
+      </c>
+      <c r="G39">
+        <v>0.24</v>
+      </c>
+      <c r="H39">
+        <v>0.87</v>
       </c>
       <c r="I39">
-        <v>3.4</v>
+        <v>0.38</v>
       </c>
       <c r="J39">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="K39">
-        <v>0.26</v>
+        <v>3.02</v>
       </c>
       <c r="L39">
-        <v>1.7</v>
+        <v>0.37</v>
       </c>
       <c r="M39">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O39">
-        <v>1.57</v>
-      </c>
-      <c r="Q39">
-        <v>0.1</v>
+        <v>3.72</v>
       </c>
       <c r="R39">
         <v>0.2</v>
       </c>
       <c r="S39">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="V39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="W39">
-        <v>2.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="AA39">
+        <v>0.34</v>
+      </c>
+      <c r="AG39">
+        <v>0.15</v>
       </c>
       <c r="AH39">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="s">
         <v>146</v>
       </c>
       <c r="AJ39" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="AL39">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AM39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AN39">
+        <v>19</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40">
+        <v>42.490015</v>
+      </c>
+      <c r="C40">
+        <v>43.224711999999897</v>
+      </c>
+      <c r="D40">
+        <v>0.3</v>
+      </c>
+      <c r="E40">
+        <v>1.52</v>
+      </c>
+      <c r="F40">
+        <v>298</v>
+      </c>
+      <c r="H40">
+        <v>0.86</v>
+      </c>
+      <c r="J40">
+        <v>2.4</v>
+      </c>
+      <c r="K40">
+        <v>1.72</v>
+      </c>
+      <c r="L40">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M40">
+        <v>0.1</v>
+      </c>
+      <c r="N40">
+        <v>0.12</v>
+      </c>
+      <c r="O40">
+        <v>4.12</v>
+      </c>
+      <c r="P40">
+        <v>0.5</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="R40">
+        <v>0.2</v>
+      </c>
+      <c r="S40">
+        <v>0.12</v>
+      </c>
+      <c r="T40">
+        <v>0.4</v>
+      </c>
+      <c r="U40">
+        <v>0.32</v>
+      </c>
+      <c r="V40">
+        <v>1.2</v>
+      </c>
+      <c r="W40">
+        <v>0.8</v>
+      </c>
+      <c r="Z40">
+        <v>0.41</v>
+      </c>
+      <c r="AA40">
+        <v>0.41</v>
+      </c>
+      <c r="AH40">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40">
-        <v>42.490073000000002</v>
-      </c>
-      <c r="C40">
-        <v>43.221850000000003</v>
-      </c>
-      <c r="E40">
-        <v>6.93</v>
-      </c>
-      <c r="F40">
-        <v>425.8</v>
-      </c>
-      <c r="J40">
-        <v>2.48</v>
-      </c>
-      <c r="K40">
-        <v>0.8</v>
-      </c>
-      <c r="L40">
-        <v>3.9</v>
-      </c>
-      <c r="N40">
-        <v>3.2</v>
-      </c>
-      <c r="O40">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S40">
-        <v>0.5</v>
-      </c>
-      <c r="V40">
-        <v>0.3</v>
-      </c>
-      <c r="W40">
-        <v>1.4</v>
-      </c>
-      <c r="AH40">
-        <v>4</v>
-      </c>
       <c r="AJ40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK40" t="s">
         <v>142</v>
       </c>
       <c r="AL40">
@@ -7079,1664 +7169,1633 @@
         <v>6</v>
       </c>
       <c r="AN40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B41">
-        <v>42.489967999999898</v>
+        <v>42.488481</v>
       </c>
       <c r="C41">
-        <v>43.221494</v>
+        <v>43.225448999999898</v>
+      </c>
+      <c r="D41">
+        <v>0.43</v>
       </c>
       <c r="E41">
-        <v>3.56</v>
+        <v>6.66</v>
       </c>
       <c r="F41">
-        <v>447.7</v>
+        <v>219.7</v>
+      </c>
+      <c r="G41">
+        <v>0.25</v>
+      </c>
+      <c r="H41">
+        <v>0.35</v>
+      </c>
+      <c r="I41">
+        <v>0.34</v>
       </c>
       <c r="J41">
-        <v>2.68</v>
+        <v>5.21</v>
       </c>
       <c r="K41">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.2</v>
+      </c>
+      <c r="N41">
+        <v>1.2</v>
+      </c>
+      <c r="O41">
+        <v>6.72</v>
+      </c>
+      <c r="P41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0.02</v>
+      </c>
+      <c r="R41">
         <v>0.4</v>
       </c>
-      <c r="M41">
-        <v>0.3</v>
-      </c>
-      <c r="N41">
-        <v>0.3</v>
-      </c>
-      <c r="O41">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R41">
-        <v>0.1</v>
-      </c>
       <c r="S41">
-        <v>0.2</v>
-      </c>
-      <c r="U41">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="V41">
         <v>0.3</v>
       </c>
       <c r="W41">
-        <v>0.3</v>
-      </c>
-      <c r="AE41">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="AH41">
-        <v>9</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="AJ41" t="s">
         <v>146</v>
       </c>
+      <c r="AK41" t="s">
+        <v>59</v>
+      </c>
       <c r="AL41">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B42">
-        <v>42.490485</v>
+        <v>42.462518000000003</v>
       </c>
       <c r="C42">
-        <v>43.221583000000003</v>
-      </c>
-      <c r="D42">
-        <v>0.28000000000000003</v>
+        <v>43.220208</v>
       </c>
       <c r="E42">
-        <v>3.25</v>
+        <v>6.73</v>
       </c>
       <c r="F42">
-        <v>453.9</v>
+        <v>228.2</v>
       </c>
       <c r="J42">
-        <v>3.16</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
-      </c>
-      <c r="L42">
-        <v>0.6</v>
-      </c>
-      <c r="M42">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="N42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O42">
-        <v>1.6</v>
-      </c>
-      <c r="R42">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q42">
         <v>0.1</v>
       </c>
       <c r="S42">
         <v>0.2</v>
       </c>
       <c r="V42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W42">
-        <v>0.4</v>
-      </c>
-      <c r="AA42">
-        <v>0.05</v>
-      </c>
-      <c r="AD42">
-        <v>4.4999999999999998E-2</v>
+        <v>1.8</v>
       </c>
       <c r="AH42">
-        <v>11</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="AJ42" t="s">
         <v>146</v>
       </c>
+      <c r="AK42" t="s">
+        <v>59</v>
+      </c>
       <c r="AL42">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AM42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B43">
-        <v>42.488987000000002</v>
+        <v>42.467429000000003</v>
       </c>
       <c r="C43">
-        <v>43.221767</v>
-      </c>
-      <c r="D43">
-        <v>0.12</v>
+        <v>43.220792000000003</v>
       </c>
       <c r="E43">
-        <v>3.95</v>
+        <v>5.57</v>
       </c>
       <c r="F43">
-        <v>416.2</v>
+        <v>185.3</v>
+      </c>
+      <c r="G43">
+        <v>1.9</v>
+      </c>
+      <c r="H43">
+        <v>3.1</v>
+      </c>
+      <c r="I43">
+        <v>2.1</v>
       </c>
       <c r="J43">
-        <v>2.62</v>
+        <v>3.87</v>
       </c>
       <c r="K43">
-        <v>0.12</v>
+        <v>2.11</v>
       </c>
       <c r="L43">
-        <v>0.11</v>
-      </c>
-      <c r="M43">
-        <v>0.3</v>
+        <v>6.17</v>
       </c>
       <c r="N43">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="O43">
-        <v>4.12</v>
+        <v>7.66</v>
       </c>
       <c r="S43">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V43">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W43">
-        <v>3.05</v>
-      </c>
-      <c r="AC43">
-        <v>0.15</v>
+        <v>1.6</v>
+      </c>
+      <c r="AG43">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AH43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="s">
         <v>59</v>
       </c>
       <c r="AJ43" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>59</v>
       </c>
       <c r="AL43">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM43">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AN43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B44">
-        <v>42.489991000000003</v>
+        <v>42.468632999999897</v>
       </c>
       <c r="C44">
-        <v>43.22139</v>
+        <v>43.220460000000003</v>
       </c>
       <c r="E44">
-        <v>5.09</v>
+        <v>6.49</v>
       </c>
       <c r="F44">
-        <v>424.8</v>
+        <v>170.6</v>
+      </c>
+      <c r="H44">
+        <v>1.5</v>
       </c>
       <c r="J44">
-        <v>7.45</v>
+        <v>2.54</v>
       </c>
       <c r="K44">
-        <v>2.57</v>
+        <v>0.96</v>
       </c>
       <c r="L44">
-        <v>0.72</v>
+        <v>1.58</v>
+      </c>
+      <c r="M44">
+        <v>0.2</v>
       </c>
       <c r="N44">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>3.19</v>
+        <v>10.77</v>
       </c>
       <c r="S44">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="V44">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W44">
-        <v>1.7</v>
-      </c>
-      <c r="AA44">
-        <v>0.11</v>
+        <v>0.7</v>
+      </c>
+      <c r="Y44">
+        <v>0.5</v>
       </c>
       <c r="AH44">
-        <v>15</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="AJ44" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AL44">
         <v>50</v>
       </c>
       <c r="AM44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B45">
-        <v>42.4916079999999</v>
+        <v>42.469019000000003</v>
       </c>
       <c r="C45">
-        <v>43.221514999999897</v>
-      </c>
-      <c r="D45">
-        <v>0.25</v>
+        <v>43.221048000000003</v>
       </c>
       <c r="E45">
-        <v>5.55</v>
+        <v>2.23</v>
       </c>
       <c r="F45">
-        <v>423.2</v>
-      </c>
-      <c r="H45">
-        <v>0.13</v>
-      </c>
-      <c r="I45">
-        <v>0.14000000000000001</v>
+        <v>270</v>
       </c>
       <c r="J45">
-        <v>7.17</v>
+        <v>2.21</v>
       </c>
       <c r="K45">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>1.68</v>
+        <v>0.86</v>
+      </c>
+      <c r="M45">
+        <v>0.2</v>
       </c>
       <c r="N45">
+        <v>0.4</v>
+      </c>
+      <c r="O45">
+        <v>1.46</v>
+      </c>
+      <c r="S45">
         <v>0.3</v>
       </c>
-      <c r="O45">
-        <v>1.8</v>
-      </c>
-      <c r="Q45">
-        <v>0.2</v>
-      </c>
-      <c r="R45">
-        <v>0.107</v>
-      </c>
-      <c r="S45">
-        <v>0.2</v>
-      </c>
-      <c r="U45">
-        <v>0.6</v>
+      <c r="V45">
+        <v>0.5</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
-      </c>
-      <c r="Z45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA45">
-        <v>0.08</v>
-      </c>
-      <c r="AD45">
-        <v>0.14000000000000001</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0.15</v>
+      </c>
+      <c r="AB45">
+        <v>0.5</v>
       </c>
       <c r="AH45">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>146</v>
       </c>
       <c r="AJ45" t="s">
         <v>142</v>
       </c>
+      <c r="AK45" t="s">
+        <v>59</v>
+      </c>
       <c r="AL45">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AN45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B46">
-        <v>42.492139000000002</v>
+        <v>42.4700279999999</v>
       </c>
       <c r="C46">
-        <v>43.224356999999898</v>
-      </c>
-      <c r="D46">
-        <v>0.41</v>
+        <v>43.220308000000003</v>
       </c>
       <c r="E46">
-        <v>6.87</v>
+        <v>7.18</v>
       </c>
       <c r="F46">
-        <v>377.6</v>
+        <v>207.3</v>
+      </c>
+      <c r="G46">
+        <v>0.3</v>
       </c>
       <c r="H46">
-        <v>0.6</v>
-      </c>
-      <c r="I46">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J46">
-        <v>8.59</v>
+        <v>3.99</v>
       </c>
       <c r="K46">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="L46">
-        <v>0.22</v>
-      </c>
-      <c r="M46">
-        <v>0.1</v>
+        <v>0.71</v>
       </c>
       <c r="N46">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="O46">
-        <v>2.97</v>
-      </c>
-      <c r="P46">
-        <v>0.3</v>
-      </c>
-      <c r="R46">
-        <v>0.2</v>
+        <v>8.61</v>
       </c>
       <c r="S46">
-        <v>0.3</v>
-      </c>
-      <c r="U46">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="V46">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W46">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH46">
         <v>9</v>
       </c>
       <c r="AI46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK46" t="s">
         <v>146</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AL46">
+        <v>41</v>
+      </c>
+      <c r="AM46">
+        <v>10</v>
+      </c>
+      <c r="AN46">
+        <v>34</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47">
+        <v>42.470640000000003</v>
+      </c>
+      <c r="C47">
+        <v>43.219876999999897</v>
+      </c>
+      <c r="D47">
+        <v>1.31</v>
+      </c>
+      <c r="E47">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="F47">
+        <v>277.5</v>
+      </c>
+      <c r="G47">
+        <v>0.46</v>
+      </c>
+      <c r="H47">
+        <v>0.18</v>
+      </c>
+      <c r="I47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J47">
+        <v>6.56</v>
+      </c>
+      <c r="K47">
+        <v>1.3</v>
+      </c>
+      <c r="L47">
+        <v>0.79</v>
+      </c>
+      <c r="M47">
+        <v>0.2</v>
+      </c>
+      <c r="N47">
+        <v>0.7</v>
+      </c>
+      <c r="O47">
+        <v>5.17</v>
+      </c>
+      <c r="S47">
+        <v>0.16</v>
+      </c>
+      <c r="V47">
+        <v>0.6</v>
+      </c>
+      <c r="W47">
+        <v>1.6</v>
+      </c>
+      <c r="AE47">
+        <v>1.4</v>
+      </c>
+      <c r="AF47">
+        <v>0.1</v>
+      </c>
+      <c r="AH47">
+        <v>7</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL47">
+        <v>42</v>
+      </c>
+      <c r="AM47">
+        <v>7</v>
+      </c>
+      <c r="AN47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48">
+        <v>42.472442000000001</v>
+      </c>
+      <c r="C48">
+        <v>43.2212719999999</v>
+      </c>
+      <c r="E48">
+        <v>5.87</v>
+      </c>
+      <c r="F48">
+        <v>167.4</v>
+      </c>
+      <c r="G48">
+        <v>0.21</v>
+      </c>
+      <c r="H48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I48">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J48">
+        <v>2.41</v>
+      </c>
+      <c r="K48">
+        <v>0.98</v>
+      </c>
+      <c r="L48">
+        <v>0.65</v>
+      </c>
+      <c r="N48">
+        <v>1.4</v>
+      </c>
+      <c r="O48">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="S48">
+        <v>1.4</v>
+      </c>
+      <c r="V48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W48">
+        <v>1.6</v>
+      </c>
+      <c r="Z48">
+        <v>0.48</v>
+      </c>
+      <c r="AH48">
+        <v>14</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL48">
+        <v>31</v>
+      </c>
+      <c r="AM48">
+        <v>8</v>
+      </c>
+      <c r="AN48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>42.472571000000002</v>
+      </c>
+      <c r="C49">
+        <v>43.220233999999898</v>
+      </c>
+      <c r="E49">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F49">
+        <v>304.7</v>
+      </c>
+      <c r="G49">
+        <v>0.18</v>
+      </c>
+      <c r="H49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J49">
+        <v>6.31</v>
+      </c>
+      <c r="K49">
+        <v>3.32</v>
+      </c>
+      <c r="L49">
+        <v>1.17</v>
+      </c>
+      <c r="N49">
+        <v>1.3</v>
+      </c>
+      <c r="O49">
+        <v>7.14</v>
+      </c>
+      <c r="P49">
+        <v>0.7</v>
+      </c>
+      <c r="S49">
+        <v>0.3</v>
+      </c>
+      <c r="V49">
+        <v>0.7</v>
+      </c>
+      <c r="W49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH49">
+        <v>3</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL49">
+        <v>45</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50">
+        <v>42.472641000000003</v>
+      </c>
+      <c r="C50">
+        <v>43.220311000000002</v>
+      </c>
+      <c r="E50">
+        <v>6.32</v>
+      </c>
+      <c r="F50">
+        <v>159.9</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>5.59</v>
+      </c>
+      <c r="K50">
+        <v>1.23</v>
+      </c>
+      <c r="L50">
+        <v>0.71</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>5.03</v>
+      </c>
+      <c r="P50">
+        <v>0.3</v>
+      </c>
+      <c r="S50">
+        <v>0.5</v>
+      </c>
+      <c r="V50">
+        <v>0.7</v>
+      </c>
+      <c r="W50">
+        <v>1.9</v>
+      </c>
+      <c r="AH50">
+        <v>6</v>
+      </c>
+      <c r="AJ50" t="s">
         <v>142</v>
       </c>
-      <c r="AL46">
-        <v>61</v>
-      </c>
-      <c r="AM46">
+      <c r="AL50">
+        <v>57</v>
+      </c>
+      <c r="AM50">
+        <v>14</v>
+      </c>
+      <c r="AN50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51">
+        <v>42.47448</v>
+      </c>
+      <c r="C51">
+        <v>43.219354000000003</v>
+      </c>
+      <c r="E51">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F51">
+        <v>361.3</v>
+      </c>
+      <c r="J51">
+        <v>8.66</v>
+      </c>
+      <c r="K51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L51">
+        <v>0.15</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>13.45</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0.7</v>
+      </c>
+      <c r="W51">
+        <v>2.4</v>
+      </c>
+      <c r="AH51">
+        <v>11</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL51">
+        <v>32</v>
+      </c>
+      <c r="AM51">
+        <v>31</v>
+      </c>
+      <c r="AN51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52">
+        <v>42.474397000000003</v>
+      </c>
+      <c r="C52">
+        <v>43.218505</v>
+      </c>
+      <c r="D52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E52">
+        <v>5.4</v>
+      </c>
+      <c r="F52">
+        <v>138.4</v>
+      </c>
+      <c r="J52">
+        <v>5.66</v>
+      </c>
+      <c r="K52">
+        <v>0.16</v>
+      </c>
+      <c r="L52">
+        <v>0.49</v>
+      </c>
+      <c r="M52">
+        <v>0.3</v>
+      </c>
+      <c r="N52">
+        <v>0.6</v>
+      </c>
+      <c r="O52">
+        <v>3.35</v>
+      </c>
+      <c r="P52">
+        <v>0.4</v>
+      </c>
+      <c r="S52">
+        <v>0.3</v>
+      </c>
+      <c r="U52">
+        <v>1.02</v>
+      </c>
+      <c r="V52">
+        <v>0.7</v>
+      </c>
+      <c r="W52">
+        <v>1.5</v>
+      </c>
+      <c r="Y52">
+        <v>0.3</v>
+      </c>
+      <c r="AH52">
+        <v>9</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL52">
+        <v>50</v>
+      </c>
+      <c r="AM52">
         <v>13</v>
       </c>
-      <c r="AN46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47">
-        <v>42.491627999999899</v>
-      </c>
-      <c r="C47">
-        <v>43.224062000000004</v>
-      </c>
-      <c r="D47">
-        <v>0.38</v>
-      </c>
-      <c r="F47">
-        <v>473.2</v>
-      </c>
-      <c r="J47">
-        <v>2.48</v>
-      </c>
-      <c r="K47">
-        <v>0.41</v>
-      </c>
-      <c r="L47">
-        <v>0.6</v>
-      </c>
-      <c r="N47">
-        <v>0.17</v>
-      </c>
-      <c r="O47">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="P47">
-        <v>0.4</v>
-      </c>
-      <c r="Q47">
-        <v>0.12</v>
-      </c>
-      <c r="R47">
+      <c r="AN52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53">
+        <v>42.474685999999899</v>
+      </c>
+      <c r="C53">
+        <v>43.2175879999999</v>
+      </c>
+      <c r="D53">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>234.5</v>
+      </c>
+      <c r="G53">
+        <v>0.9</v>
+      </c>
+      <c r="H53">
+        <v>0.7</v>
+      </c>
+      <c r="J53">
+        <v>4.83</v>
+      </c>
+      <c r="K53">
+        <v>0.71</v>
+      </c>
+      <c r="L53">
+        <v>0.35</v>
+      </c>
+      <c r="M53">
+        <v>0.1</v>
+      </c>
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+      <c r="O53">
+        <v>1.92</v>
+      </c>
+      <c r="R53">
+        <v>0.1</v>
+      </c>
+      <c r="S53">
         <v>0.2</v>
       </c>
-      <c r="S47">
+      <c r="U53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V53">
+        <v>0.3</v>
+      </c>
+      <c r="W53">
         <v>0.7</v>
       </c>
-      <c r="V47">
-        <v>0.4</v>
-      </c>
-      <c r="W47">
-        <v>0.7</v>
-      </c>
-      <c r="AH47">
-        <v>9</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL47">
-        <v>68</v>
-      </c>
-      <c r="AM47">
-        <v>9</v>
-      </c>
-      <c r="AN47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48">
-        <v>42.491681</v>
-      </c>
-      <c r="C48">
-        <v>43.223903999999898</v>
-      </c>
-      <c r="D48">
-        <v>1.04</v>
-      </c>
-      <c r="E48">
-        <v>6.73</v>
-      </c>
-      <c r="F48">
-        <v>351.3</v>
-      </c>
-      <c r="J48">
-        <v>7.43</v>
-      </c>
-      <c r="K48">
-        <v>0.78</v>
-      </c>
-      <c r="L48">
-        <v>0.6</v>
-      </c>
-      <c r="N48">
-        <v>0.6</v>
-      </c>
-      <c r="O48">
-        <v>2.87</v>
-      </c>
-      <c r="P48">
-        <v>0.3</v>
-      </c>
-      <c r="Q48">
-        <v>0.1</v>
-      </c>
-      <c r="R48">
-        <v>5.5E-2</v>
-      </c>
-      <c r="S48">
-        <v>0.3</v>
-      </c>
-      <c r="U48">
-        <v>0.9</v>
-      </c>
-      <c r="V48">
-        <v>0.3</v>
-      </c>
-      <c r="W48">
-        <v>1.7</v>
-      </c>
-      <c r="Z48">
-        <v>0.1</v>
-      </c>
-      <c r="AH48">
-        <v>8</v>
-      </c>
-      <c r="AI48" t="s">
+      <c r="AH53">
+        <v>5</v>
+      </c>
+      <c r="AJ53" t="s">
         <v>59</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL48">
-        <v>56</v>
-      </c>
-      <c r="AM48">
-        <v>10</v>
-      </c>
-      <c r="AN48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49">
-        <v>42.491481</v>
-      </c>
-      <c r="C49">
-        <v>43.223615000000002</v>
-      </c>
-      <c r="D49">
-        <v>0.31</v>
-      </c>
-      <c r="E49">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F49">
-        <v>459.2</v>
-      </c>
-      <c r="J49">
-        <v>2.88</v>
-      </c>
-      <c r="K49">
-        <v>0.47</v>
-      </c>
-      <c r="L49">
-        <v>0.3</v>
-      </c>
-      <c r="N49">
-        <v>0.5</v>
-      </c>
-      <c r="O49">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="S49">
-        <v>0.2</v>
-      </c>
-      <c r="U49">
-        <v>0.4</v>
-      </c>
-      <c r="V49">
-        <v>0.3</v>
-      </c>
-      <c r="W49">
-        <v>0.5</v>
-      </c>
-      <c r="Z49">
-        <v>0.9</v>
-      </c>
-      <c r="AA49">
-        <v>0.7</v>
-      </c>
-      <c r="AH49">
-        <v>4</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL49">
-        <v>70</v>
-      </c>
-      <c r="AM49">
-        <v>7</v>
-      </c>
-      <c r="AN49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50">
-        <v>42.491557999999898</v>
-      </c>
-      <c r="C50">
-        <v>43.223322000000003</v>
-      </c>
-      <c r="E50">
-        <v>1.49</v>
-      </c>
-      <c r="F50">
-        <v>432.7</v>
-      </c>
-      <c r="J50">
-        <v>1.73</v>
-      </c>
-      <c r="K50">
-        <v>0.16</v>
-      </c>
-      <c r="L50">
-        <v>0.4</v>
-      </c>
-      <c r="O50">
-        <v>0.34</v>
-      </c>
-      <c r="S50">
-        <v>0.1</v>
-      </c>
-      <c r="V50">
-        <v>0.2</v>
-      </c>
-      <c r="W50">
-        <v>0.4</v>
-      </c>
-      <c r="AC50">
-        <v>0.09</v>
-      </c>
-      <c r="AH50">
-        <v>10</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL50">
-        <v>56</v>
-      </c>
-      <c r="AM50">
-        <v>11</v>
-      </c>
-      <c r="AN50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51">
-        <v>42.491397999999897</v>
-      </c>
-      <c r="C51">
-        <v>43.223177</v>
-      </c>
-      <c r="D51">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E51">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F51">
-        <v>375.4</v>
-      </c>
-      <c r="G51">
-        <v>0.92</v>
-      </c>
-      <c r="J51">
-        <v>1.59</v>
-      </c>
-      <c r="K51">
-        <v>1.21</v>
-      </c>
-      <c r="L51">
-        <v>0.5</v>
-      </c>
-      <c r="M51">
-        <v>0.1</v>
-      </c>
-      <c r="N51">
-        <v>0.7</v>
-      </c>
-      <c r="O51">
-        <v>0.23</v>
-      </c>
-      <c r="R51">
-        <v>0.1</v>
-      </c>
-      <c r="S51">
-        <v>0.2</v>
-      </c>
-      <c r="T51">
-        <v>0.03</v>
-      </c>
-      <c r="U51">
-        <v>0.4</v>
-      </c>
-      <c r="V51">
-        <v>0.3</v>
-      </c>
-      <c r="W51">
-        <v>0.05</v>
-      </c>
-      <c r="AA51">
-        <v>0.13</v>
-      </c>
-      <c r="AE51">
-        <v>0.15</v>
-      </c>
-      <c r="AH51">
-        <v>7</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL51">
-        <v>58</v>
-      </c>
-      <c r="AM51">
-        <v>10</v>
-      </c>
-      <c r="AN51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52">
-        <v>42.491610000000001</v>
-      </c>
-      <c r="C52">
-        <v>43.222802999999899</v>
-      </c>
-      <c r="D52">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E52">
-        <v>2.59</v>
-      </c>
-      <c r="F52">
-        <v>426.4</v>
-      </c>
-      <c r="I52">
-        <v>0.8</v>
-      </c>
-      <c r="J52">
-        <v>3.25</v>
-      </c>
-      <c r="K52">
-        <v>0.79</v>
-      </c>
-      <c r="L52">
-        <v>0.35</v>
-      </c>
-      <c r="M52">
-        <v>0.2</v>
-      </c>
-      <c r="N52">
-        <v>0.1</v>
-      </c>
-      <c r="O52">
-        <v>1.99</v>
-      </c>
-      <c r="Q52">
-        <v>0.4</v>
-      </c>
-      <c r="R52">
-        <v>0.1</v>
-      </c>
-      <c r="S52">
-        <v>0.5</v>
-      </c>
-      <c r="T52">
-        <v>0.02</v>
-      </c>
-      <c r="U52">
-        <v>0.6</v>
-      </c>
-      <c r="V52">
-        <v>0.3</v>
-      </c>
-      <c r="W52">
-        <v>1.9</v>
-      </c>
-      <c r="AH52">
-        <v>6</v>
-      </c>
-      <c r="AI52" t="s">
+      <c r="AK53" t="s">
         <v>59</v>
       </c>
-      <c r="AJ52" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL52">
-        <v>71</v>
-      </c>
-      <c r="AM52">
-        <v>5</v>
-      </c>
-      <c r="AN52">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53">
-        <v>42.491233999999899</v>
-      </c>
-      <c r="C53">
-        <v>43.222617999999898</v>
-      </c>
-      <c r="D53">
-        <v>0.08</v>
-      </c>
-      <c r="E53">
-        <v>1.24</v>
-      </c>
-      <c r="F53">
-        <v>474.5</v>
-      </c>
-      <c r="I53">
-        <v>0.6</v>
-      </c>
-      <c r="J53">
-        <v>2.02</v>
-      </c>
-      <c r="K53">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L53">
-        <v>1.03</v>
-      </c>
-      <c r="N53">
-        <v>0.2</v>
-      </c>
-      <c r="O53">
-        <v>0.41</v>
-      </c>
-      <c r="S53">
-        <v>0.5</v>
-      </c>
-      <c r="V53">
-        <v>0.2</v>
-      </c>
-      <c r="W53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH53">
-        <v>9</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>152</v>
-      </c>
       <c r="AL53">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM53">
         <v>11</v>
       </c>
       <c r="AN53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B54">
-        <v>42.490803999999898</v>
+        <v>42.463645</v>
       </c>
       <c r="C54">
-        <v>43.221992</v>
-      </c>
-      <c r="D54">
-        <v>0.32</v>
+        <v>43.220910000000003</v>
       </c>
       <c r="E54">
-        <v>7.21</v>
+        <v>5.14</v>
       </c>
       <c r="F54">
-        <v>362</v>
-      </c>
-      <c r="G54">
-        <v>5.03</v>
-      </c>
-      <c r="H54">
-        <v>0.11</v>
-      </c>
-      <c r="I54">
-        <v>7.4999999999999997E-2</v>
+        <v>154.6</v>
       </c>
       <c r="J54">
-        <v>9.69</v>
+        <v>3.25</v>
       </c>
       <c r="K54">
-        <v>17.47</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
-      </c>
-      <c r="M54">
         <v>0.3</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>4.5</v>
-      </c>
-      <c r="P54">
-        <v>0.5</v>
+        <v>10.11</v>
       </c>
       <c r="S54">
         <v>0.3</v>
       </c>
-      <c r="U54">
+      <c r="V54">
+        <v>0.2</v>
+      </c>
+      <c r="W54">
+        <v>0.8</v>
+      </c>
+      <c r="AH54">
+        <v>6</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL54">
+        <v>57</v>
+      </c>
+      <c r="AM54">
+        <v>12</v>
+      </c>
+      <c r="AN54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55">
+        <v>42.476743999999897</v>
+      </c>
+      <c r="C55">
+        <v>43.21978</v>
+      </c>
+      <c r="E55">
+        <v>5.55</v>
+      </c>
+      <c r="F55">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.22</v>
+      </c>
+      <c r="H55">
+        <v>0.24</v>
+      </c>
+      <c r="J55">
+        <v>2.68</v>
+      </c>
+      <c r="K55">
+        <v>0.89</v>
+      </c>
+      <c r="L55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.2</v>
+      </c>
+      <c r="N55">
         <v>0.9</v>
       </c>
-      <c r="V54">
-        <v>0.4</v>
-      </c>
-      <c r="W54">
-        <v>2.1</v>
-      </c>
-      <c r="AA54">
-        <v>0.13</v>
-      </c>
-      <c r="AH54">
-        <v>13</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ54" t="s">
+      <c r="O55">
+        <v>7.2</v>
+      </c>
+      <c r="R55">
+        <v>0.2</v>
+      </c>
+      <c r="S55">
+        <v>0.5</v>
+      </c>
+      <c r="V55">
+        <v>1.2</v>
+      </c>
+      <c r="W55">
+        <v>0.5</v>
+      </c>
+      <c r="AH55">
+        <v>6</v>
+      </c>
+      <c r="AI55" t="s">
         <v>146</v>
       </c>
-      <c r="AL54">
-        <v>62</v>
-      </c>
-      <c r="AM54">
-        <v>8</v>
-      </c>
-      <c r="AN54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55">
-        <v>42.489550000000001</v>
-      </c>
-      <c r="C55">
-        <v>43.222591999999899</v>
-      </c>
-      <c r="D55">
-        <v>0.15</v>
-      </c>
-      <c r="E55">
-        <v>3.81</v>
-      </c>
-      <c r="F55">
-        <v>398.9</v>
-      </c>
-      <c r="J55">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="K55">
+      <c r="AJ55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL55">
+        <v>59</v>
+      </c>
+      <c r="AM55">
+        <v>10</v>
+      </c>
+      <c r="AN55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56">
+        <v>42.477587999999898</v>
+      </c>
+      <c r="C56">
+        <v>43.216532999999899</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>7.86</v>
+      </c>
+      <c r="F56">
+        <v>384.6</v>
+      </c>
+      <c r="J56">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="K56">
+        <v>0.78</v>
+      </c>
+      <c r="L56">
+        <v>0.16</v>
+      </c>
+      <c r="N56">
+        <v>3.36</v>
+      </c>
+      <c r="O56">
+        <v>2.89</v>
+      </c>
+      <c r="Q56">
+        <v>0.6</v>
+      </c>
+      <c r="S56">
         <v>0.8</v>
       </c>
-      <c r="L55">
-        <v>1.42</v>
-      </c>
-      <c r="M55">
+      <c r="T56">
+        <v>0.2</v>
+      </c>
+      <c r="U56">
+        <v>0.9</v>
+      </c>
+      <c r="V56">
         <v>0.3</v>
       </c>
-      <c r="N55">
-        <v>0.2</v>
-      </c>
-      <c r="O55">
-        <v>1.28</v>
-      </c>
-      <c r="Q55">
-        <v>0.1</v>
-      </c>
-      <c r="R55">
-        <v>0.1</v>
-      </c>
-      <c r="S55">
-        <v>0.2</v>
-      </c>
-      <c r="V55">
-        <v>0.2</v>
-      </c>
-      <c r="W55">
-        <v>0.6</v>
-      </c>
-      <c r="Y55">
-        <v>0.5</v>
-      </c>
-      <c r="AB55">
-        <v>0.6</v>
-      </c>
-      <c r="AH55">
-        <v>9</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL55">
-        <v>55</v>
-      </c>
-      <c r="AM55">
-        <v>13</v>
-      </c>
-      <c r="AN55">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56">
-        <v>42.488799</v>
-      </c>
-      <c r="C56">
-        <v>43.222403</v>
-      </c>
-      <c r="D56">
-        <v>0.38</v>
-      </c>
-      <c r="E56">
-        <v>4.42</v>
-      </c>
-      <c r="F56">
-        <v>414.3</v>
-      </c>
-      <c r="J56">
-        <v>2.7</v>
-      </c>
-      <c r="K56">
-        <v>0.17</v>
-      </c>
-      <c r="L56">
-        <v>0.2</v>
-      </c>
-      <c r="M56">
-        <v>0.13</v>
-      </c>
-      <c r="N56">
-        <v>1.02</v>
-      </c>
-      <c r="O56">
-        <v>3.32</v>
-      </c>
-      <c r="S56">
-        <v>0.5</v>
-      </c>
-      <c r="T56">
-        <v>0.06</v>
-      </c>
-      <c r="U56">
-        <v>0.3</v>
-      </c>
-      <c r="V56">
-        <v>0.2</v>
-      </c>
       <c r="W56">
-        <v>0.3</v>
-      </c>
-      <c r="AB56">
-        <v>0.45</v>
-      </c>
-      <c r="AD56">
-        <v>0.12</v>
+        <v>0.8</v>
+      </c>
+      <c r="X56">
+        <v>1.6</v>
       </c>
       <c r="AH56">
         <v>10</v>
       </c>
-      <c r="AI56" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ56" t="s">
         <v>144</v>
       </c>
       <c r="AL56">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM56">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AN56">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B57">
-        <v>42.488912999999897</v>
+        <v>42.478431</v>
       </c>
       <c r="C57">
-        <v>43.223143</v>
+        <v>43.215865000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.35</v>
       </c>
       <c r="E57">
-        <v>1.99</v>
+        <v>5.07</v>
       </c>
       <c r="F57">
-        <v>415.1</v>
-      </c>
-      <c r="H57">
-        <v>1.4</v>
+        <v>234.3</v>
       </c>
       <c r="J57">
-        <v>3.3</v>
+        <v>4.95</v>
       </c>
       <c r="K57">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L57">
-        <v>1.1000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N57">
+        <v>0.4</v>
+      </c>
+      <c r="O57">
+        <v>1.36</v>
+      </c>
+      <c r="Q57">
+        <v>0.1</v>
+      </c>
+      <c r="R57">
         <v>0.2</v>
       </c>
-      <c r="O57">
-        <v>1.4</v>
-      </c>
-      <c r="P57">
-        <v>0.3</v>
-      </c>
       <c r="S57">
+        <v>0.15</v>
+      </c>
+      <c r="U57">
         <v>0.6</v>
       </c>
       <c r="V57">
         <v>0.4</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
-      </c>
-      <c r="X57">
+        <v>0.9</v>
+      </c>
+      <c r="AB57">
+        <v>0.4</v>
+      </c>
+      <c r="AH57">
+        <v>9</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL57">
+        <v>46</v>
+      </c>
+      <c r="AM57">
+        <v>15</v>
+      </c>
+      <c r="AN57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58">
+        <v>42.480438999999897</v>
+      </c>
+      <c r="C58">
+        <v>43.218026000000002</v>
+      </c>
+      <c r="D58">
+        <v>0.38</v>
+      </c>
+      <c r="E58">
+        <v>4.55</v>
+      </c>
+      <c r="F58">
+        <v>203.1</v>
+      </c>
+      <c r="J58">
+        <v>6.91</v>
+      </c>
+      <c r="K58">
+        <v>0.71</v>
+      </c>
+      <c r="L58">
+        <v>1.01</v>
+      </c>
+      <c r="M58">
+        <v>0.1</v>
+      </c>
+      <c r="N58">
+        <v>0.1</v>
+      </c>
+      <c r="O58">
+        <v>1.82</v>
+      </c>
+      <c r="Q58">
+        <v>0.3</v>
+      </c>
+      <c r="S58">
+        <v>0.3</v>
+      </c>
+      <c r="U58">
+        <v>1.2</v>
+      </c>
+      <c r="V58">
         <v>0.7</v>
       </c>
-      <c r="AH57">
-        <v>7</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL57">
-        <v>55</v>
-      </c>
-      <c r="AM57">
-        <v>6</v>
-      </c>
-      <c r="AN57">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58">
-        <v>42.4893369999999</v>
-      </c>
-      <c r="C58">
-        <v>43.223858</v>
-      </c>
-      <c r="D58">
-        <v>1.59</v>
-      </c>
-      <c r="E58">
-        <v>6.42</v>
-      </c>
-      <c r="F58">
-        <v>415.03</v>
-      </c>
-      <c r="J58">
-        <v>5.62</v>
-      </c>
-      <c r="K58">
-        <v>1.17</v>
-      </c>
-      <c r="L58">
-        <v>1.06</v>
-      </c>
-      <c r="M58">
-        <v>0.3</v>
-      </c>
-      <c r="N58">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O58">
-        <v>7.05</v>
-      </c>
-      <c r="S58">
-        <v>0.5</v>
-      </c>
-      <c r="V58">
-        <v>0.1</v>
-      </c>
       <c r="W58">
-        <v>0.7</v>
-      </c>
-      <c r="AB58">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z58">
+        <v>0.15</v>
       </c>
       <c r="AH58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ58" t="s">
         <v>146</v>
       </c>
       <c r="AL58">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AM58">
         <v>8</v>
       </c>
       <c r="AN58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="2">
-        <v>42.489663</v>
-      </c>
-      <c r="C59" s="2">
-        <v>43.224527000000002</v>
-      </c>
-      <c r="E59" s="2">
-        <v>5.03</v>
-      </c>
-      <c r="F59" s="2">
-        <v>427.3</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J59" s="2">
-        <v>3.68</v>
-      </c>
-      <c r="K59" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="N59" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>12.35</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="V59" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59">
+        <v>42.484884999999899</v>
+      </c>
+      <c r="C59">
+        <v>43.217697000000001</v>
+      </c>
+      <c r="D59">
+        <v>0.69</v>
+      </c>
+      <c r="E59">
+        <v>8.67</v>
+      </c>
+      <c r="F59">
+        <v>238.5</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59">
+        <v>5.91</v>
+      </c>
+      <c r="K59">
+        <v>0.24</v>
+      </c>
+      <c r="L59">
+        <v>0.26</v>
+      </c>
+      <c r="M59">
+        <v>0.1</v>
+      </c>
+      <c r="N59">
+        <v>0.2</v>
+      </c>
+      <c r="O59">
+        <v>2.04</v>
+      </c>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59">
         <v>0.3</v>
       </c>
-      <c r="W59" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>9</v>
-      </c>
-      <c r="AJ59" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>59</v>
-      </c>
-      <c r="AM59" s="2">
-        <v>13</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59">
+        <v>0.7</v>
+      </c>
+      <c r="W59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59">
+        <v>0.5</v>
+      </c>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59">
+        <v>23</v>
+      </c>
+      <c r="AI59"/>
+      <c r="AJ59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK59"/>
+      <c r="AL59">
+        <v>51</v>
+      </c>
+      <c r="AM59">
+        <v>4</v>
+      </c>
+      <c r="AN59">
+        <v>18</v>
+      </c>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B60">
-        <v>42.493025000000003</v>
+        <v>42.486913999999899</v>
       </c>
       <c r="C60">
-        <v>43.224429999999899</v>
+        <v>43.2182859999999</v>
       </c>
       <c r="D60">
         <v>0.52</v>
       </c>
       <c r="E60">
-        <v>3.23</v>
+        <v>4.76</v>
       </c>
       <c r="F60">
-        <v>463.9</v>
+        <v>209.3</v>
       </c>
       <c r="J60">
-        <v>5.94</v>
+        <v>5.2</v>
       </c>
       <c r="K60">
+        <v>0.87</v>
+      </c>
+      <c r="L60">
+        <v>0.32</v>
+      </c>
+      <c r="N60">
         <v>0.6</v>
       </c>
-      <c r="L60">
-        <v>0.43</v>
-      </c>
-      <c r="M60">
+      <c r="O60">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P60">
+        <v>0.5</v>
+      </c>
+      <c r="S60">
+        <v>0.4</v>
+      </c>
+      <c r="V60">
+        <v>0.6</v>
+      </c>
+      <c r="W60">
+        <v>0.7</v>
+      </c>
+      <c r="Z60">
+        <v>0.9</v>
+      </c>
+      <c r="AH60">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL60">
+        <v>43</v>
+      </c>
+      <c r="AM60">
+        <v>8</v>
+      </c>
+      <c r="AN60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61">
+        <v>42.487506000000003</v>
+      </c>
+      <c r="C61">
+        <v>43.218822000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.46</v>
+      </c>
+      <c r="E61">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F61">
+        <v>166</v>
+      </c>
+      <c r="J61">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="K61">
+        <v>0.21</v>
+      </c>
+      <c r="L61">
+        <v>0.69</v>
+      </c>
+      <c r="N61">
+        <v>0.3</v>
+      </c>
+      <c r="O61">
+        <v>2.11</v>
+      </c>
+      <c r="R61">
+        <v>0.4</v>
+      </c>
+      <c r="S61">
         <v>0.2</v>
       </c>
-      <c r="N60">
+      <c r="V61">
+        <v>0.8</v>
+      </c>
+      <c r="W61">
+        <v>1.7</v>
+      </c>
+      <c r="X61">
+        <v>0.15</v>
+      </c>
+      <c r="Y61">
         <v>0.5</v>
       </c>
-      <c r="O60">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="Q60">
-        <v>0.1</v>
-      </c>
-      <c r="S60">
-        <v>0.2</v>
-      </c>
-      <c r="U60">
-        <v>0.9</v>
-      </c>
-      <c r="V60">
-        <v>0.3</v>
-      </c>
-      <c r="W60">
-        <v>0.9</v>
-      </c>
-      <c r="Z60">
-        <v>0.06</v>
-      </c>
-      <c r="AH60">
+      <c r="AB61">
+        <v>0.8</v>
+      </c>
+      <c r="AH61">
         <v>6</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL60">
-        <v>71</v>
-      </c>
-      <c r="AM60">
-        <v>7</v>
-      </c>
-      <c r="AN60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61">
-        <v>42.493018999999897</v>
-      </c>
-      <c r="C61">
-        <v>43.223861999999897</v>
-      </c>
-      <c r="D61">
-        <v>1.93</v>
-      </c>
-      <c r="E61">
-        <v>5.96</v>
-      </c>
-      <c r="F61">
-        <v>412.3</v>
-      </c>
-      <c r="I61">
-        <v>0.7</v>
-      </c>
-      <c r="J61">
-        <v>7.67</v>
-      </c>
-      <c r="K61">
-        <v>0.7</v>
-      </c>
-      <c r="L61">
-        <v>1.05</v>
-      </c>
-      <c r="M61">
-        <v>0.1</v>
-      </c>
-      <c r="N61">
-        <v>1.6</v>
-      </c>
-      <c r="O61">
-        <v>6.45</v>
-      </c>
-      <c r="S61">
-        <v>0.4</v>
-      </c>
-      <c r="V61">
-        <v>0.4</v>
-      </c>
-      <c r="W61">
-        <v>1.02</v>
-      </c>
-      <c r="AH61">
-        <v>10</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>146</v>
       </c>
       <c r="AJ61" t="s">
         <v>152</v>
       </c>
-      <c r="AK61" t="s">
+      <c r="AL61">
+        <v>59</v>
+      </c>
+      <c r="AM61">
+        <v>10</v>
+      </c>
+      <c r="AN61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62">
+        <v>42.478547880400001</v>
+      </c>
+      <c r="C62">
+        <v>43.217169552100003</v>
+      </c>
+      <c r="E62">
+        <v>8.48</v>
+      </c>
+      <c r="F62">
+        <v>224.9</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>6.51</v>
+      </c>
+      <c r="K62">
+        <v>0.38</v>
+      </c>
+      <c r="L62">
+        <v>0.19</v>
+      </c>
+      <c r="M62">
+        <v>0.1</v>
+      </c>
+      <c r="N62">
+        <v>0.4</v>
+      </c>
+      <c r="O62">
+        <v>2.38</v>
+      </c>
+      <c r="P62">
+        <v>0.3</v>
+      </c>
+      <c r="Q62">
+        <v>0.1</v>
+      </c>
+      <c r="R62">
+        <v>0.4</v>
+      </c>
+      <c r="S62">
+        <v>0.4</v>
+      </c>
+      <c r="V62">
+        <v>0.5</v>
+      </c>
+      <c r="W62">
+        <v>0.7</v>
+      </c>
+      <c r="AH62">
+        <v>6</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL62">
+        <v>63</v>
+      </c>
+      <c r="AM62">
+        <v>6</v>
+      </c>
+      <c r="AN62">
+        <v>19</v>
+      </c>
+      <c r="AO62" t="s">
         <v>146</v>
       </c>
-      <c r="AL61">
-        <v>55</v>
-      </c>
-      <c r="AM61">
-        <v>7</v>
-      </c>
-      <c r="AN61">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62">
-        <v>42.492885000000001</v>
-      </c>
-      <c r="C62">
-        <v>43.223123999999899</v>
-      </c>
-      <c r="D62">
-        <v>0.63</v>
-      </c>
-      <c r="E62">
-        <v>2.95</v>
-      </c>
-      <c r="F62">
-        <v>144.19999999999999</v>
-      </c>
-      <c r="H62">
-        <v>1.6</v>
-      </c>
-      <c r="J62">
-        <v>0.54</v>
-      </c>
-      <c r="K62">
-        <v>0.15</v>
-      </c>
-      <c r="L62">
-        <v>0.32</v>
-      </c>
-      <c r="N62">
-        <v>2.4</v>
-      </c>
-      <c r="O62">
-        <v>33.93</v>
-      </c>
-      <c r="S62">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V62">
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63">
+        <v>42.481013966600003</v>
+      </c>
+      <c r="C63">
+        <v>43.219298332500003</v>
+      </c>
+      <c r="D63">
+        <v>1.02</v>
+      </c>
+      <c r="E63">
+        <v>2.8</v>
+      </c>
+      <c r="F63">
+        <v>128.9</v>
+      </c>
+      <c r="J63">
+        <v>2.31</v>
+      </c>
+      <c r="K63">
+        <v>1.89</v>
+      </c>
+      <c r="L63">
+        <v>0.52</v>
+      </c>
+      <c r="M63">
+        <v>0.4</v>
+      </c>
+      <c r="N63">
+        <v>0.5</v>
+      </c>
+      <c r="O63">
+        <v>3.84</v>
+      </c>
+      <c r="S63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>0.26</v>
+      </c>
+      <c r="V63">
+        <v>0.7</v>
+      </c>
+      <c r="W63">
         <v>1.2</v>
       </c>
-      <c r="W62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB62">
-        <v>0.9</v>
-      </c>
-      <c r="AH62">
-        <v>8</v>
-      </c>
-      <c r="AI62" t="s">
+      <c r="AH63">
+        <v>5</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK63" t="s">
         <v>146</v>
       </c>
-      <c r="AJ62" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL62">
-        <v>62</v>
-      </c>
-      <c r="AM62">
-        <v>9</v>
-      </c>
-      <c r="AN62">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63">
-        <v>42.49259</v>
-      </c>
-      <c r="C63">
-        <v>43.222206</v>
-      </c>
-      <c r="D63">
-        <v>0.25</v>
-      </c>
-      <c r="E63">
-        <v>1.04</v>
-      </c>
-      <c r="F63">
-        <v>317.10000000000002</v>
-      </c>
-      <c r="H63">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="I63">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J63">
-        <v>1.04</v>
-      </c>
-      <c r="K63">
-        <v>0.17</v>
-      </c>
-      <c r="L63">
-        <v>0.11</v>
-      </c>
-      <c r="N63">
-        <v>0.1</v>
-      </c>
-      <c r="O63">
-        <v>2.36</v>
-      </c>
-      <c r="R63">
-        <v>0.15</v>
-      </c>
-      <c r="S63">
-        <v>0.22</v>
-      </c>
-      <c r="T63">
-        <v>0.01</v>
-      </c>
-      <c r="U63">
-        <v>0.4</v>
-      </c>
-      <c r="V63">
-        <v>0.3</v>
-      </c>
-      <c r="W63">
-        <v>0.6</v>
-      </c>
-      <c r="Z63">
-        <v>0.08</v>
-      </c>
-      <c r="AC63">
-        <v>0.06</v>
-      </c>
-      <c r="AG63">
-        <v>0.11</v>
-      </c>
-      <c r="AH63">
-        <v>10</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>142</v>
-      </c>
       <c r="AL63">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AM63">
         <v>8</v>
       </c>
       <c r="AN63">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>210</v>
       </c>
@@ -8804,7 +8863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -8869,489 +8928,522 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B66">
-        <v>42.468632999999897</v>
+        <v>42.466709000000002</v>
       </c>
       <c r="C66">
-        <v>43.220460000000003</v>
+        <v>43.220782</v>
       </c>
       <c r="E66">
-        <v>6.49</v>
+        <v>11.8</v>
       </c>
       <c r="F66">
-        <v>170.6</v>
-      </c>
-      <c r="H66">
+        <v>240.5</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>9.84</v>
+      </c>
+      <c r="K66">
+        <v>0.22</v>
+      </c>
+      <c r="L66">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N66">
+        <v>1.02</v>
+      </c>
+      <c r="O66">
+        <v>6.84</v>
+      </c>
+      <c r="S66">
+        <v>0.5</v>
+      </c>
+      <c r="V66">
+        <v>0.4</v>
+      </c>
+      <c r="W66">
+        <v>1.7</v>
+      </c>
+      <c r="AB66">
+        <v>0.5</v>
+      </c>
+      <c r="AH66">
+        <v>12</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL66">
+        <v>43</v>
+      </c>
+      <c r="AM66">
+        <v>18</v>
+      </c>
+      <c r="AN66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67">
+        <v>42.467247</v>
+      </c>
+      <c r="C67">
+        <v>43.220412000000003</v>
+      </c>
+      <c r="D67">
+        <v>0.51</v>
+      </c>
+      <c r="E67">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F67">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="G67">
         <v>1.5</v>
       </c>
-      <c r="J66">
-        <v>2.54</v>
-      </c>
-      <c r="K66">
-        <v>0.96</v>
-      </c>
-      <c r="L66">
-        <v>1.58</v>
-      </c>
-      <c r="M66">
+      <c r="H67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J67">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K67">
+        <v>1.31</v>
+      </c>
+      <c r="L67">
+        <v>0.67</v>
+      </c>
+      <c r="M67">
+        <v>0.3</v>
+      </c>
+      <c r="N67">
+        <v>0.9</v>
+      </c>
+      <c r="O67">
+        <v>2.65</v>
+      </c>
+      <c r="P67">
         <v>0.2</v>
       </c>
-      <c r="N66">
-        <v>1.3</v>
-      </c>
-      <c r="O66">
-        <v>10.77</v>
-      </c>
-      <c r="S66">
+      <c r="Q67">
+        <v>0.1</v>
+      </c>
+      <c r="R67">
         <v>0.2</v>
       </c>
-      <c r="V66">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W66">
-        <v>0.7</v>
-      </c>
-      <c r="Y66">
+      <c r="S67">
+        <v>0.2</v>
+      </c>
+      <c r="T67">
+        <v>0.1</v>
+      </c>
+      <c r="U67">
         <v>0.5</v>
       </c>
-      <c r="AH66">
-        <v>7</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL66">
-        <v>50</v>
-      </c>
-      <c r="AM66">
-        <v>8</v>
-      </c>
-      <c r="AN66">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67">
-        <v>42.4700279999999</v>
-      </c>
-      <c r="C67">
-        <v>43.220308000000003</v>
-      </c>
-      <c r="E67">
-        <v>7.18</v>
-      </c>
-      <c r="F67">
-        <v>207.3</v>
-      </c>
-      <c r="G67">
-        <v>0.3</v>
-      </c>
-      <c r="H67">
-        <v>0.21</v>
-      </c>
-      <c r="J67">
-        <v>3.99</v>
-      </c>
-      <c r="K67">
-        <v>0.9</v>
-      </c>
-      <c r="L67">
-        <v>0.71</v>
-      </c>
-      <c r="N67">
-        <v>1.2</v>
-      </c>
-      <c r="O67">
-        <v>8.61</v>
-      </c>
-      <c r="S67">
+      <c r="V67">
         <v>0.5</v>
       </c>
-      <c r="V67">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="W67">
-        <v>1.3</v>
+        <v>1.8</v>
+      </c>
+      <c r="AB67">
+        <v>0.4</v>
       </c>
       <c r="AH67">
         <v>9</v>
       </c>
       <c r="AI67" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="AJ67" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK67" t="s">
         <v>146</v>
       </c>
       <c r="AL67">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM67">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AN67">
-        <v>34</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="B68">
-        <v>42.470640000000003</v>
+        <v>42.467657000000003</v>
       </c>
       <c r="C68">
-        <v>43.219876999999897</v>
+        <v>43.220773999999899</v>
       </c>
       <c r="D68">
-        <v>1.31</v>
+        <v>0.59</v>
       </c>
       <c r="E68">
-        <v>8.9700000000000006</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F68">
-        <v>277.5</v>
-      </c>
-      <c r="G68">
-        <v>0.46</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="H68">
-        <v>0.18</v>
-      </c>
-      <c r="I68">
-        <v>0.28999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J68">
-        <v>6.56</v>
+        <v>7.66</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="L68">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
       <c r="M68">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N68">
         <v>0.7</v>
       </c>
       <c r="O68">
-        <v>5.17</v>
+        <v>3.48</v>
       </c>
       <c r="S68">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="V68">
+        <v>0.4</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="Z68">
+        <v>0.11</v>
+      </c>
+      <c r="AB68">
+        <v>0.8</v>
+      </c>
+      <c r="AH68">
+        <v>11</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL68">
+        <v>46</v>
+      </c>
+      <c r="AM68">
+        <v>18</v>
+      </c>
+      <c r="AN68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69">
+        <v>42.467986000000003</v>
+      </c>
+      <c r="C69">
+        <v>43.220382999999899</v>
+      </c>
+      <c r="D69">
+        <v>0.21</v>
+      </c>
+      <c r="E69">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F69">
+        <v>201.65</v>
+      </c>
+      <c r="H69">
+        <v>1.2</v>
+      </c>
+      <c r="J69">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="K69">
         <v>0.6</v>
       </c>
-      <c r="W68">
-        <v>1.6</v>
-      </c>
-      <c r="AE68">
-        <v>1.4</v>
-      </c>
-      <c r="AF68">
+      <c r="L69">
+        <v>0.25</v>
+      </c>
+      <c r="M69">
         <v>0.1</v>
       </c>
-      <c r="AH68">
-        <v>7</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL68">
-        <v>42</v>
-      </c>
-      <c r="AM68">
-        <v>7</v>
-      </c>
-      <c r="AN68">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69">
-        <v>42.47448</v>
-      </c>
-      <c r="C69">
-        <v>43.219354000000003</v>
-      </c>
-      <c r="E69">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="F69">
-        <v>361.3</v>
-      </c>
-      <c r="J69">
-        <v>8.66</v>
-      </c>
-      <c r="K69">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L69">
-        <v>0.15</v>
-      </c>
       <c r="N69">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O69">
-        <v>13.45</v>
+        <v>3.23</v>
+      </c>
+      <c r="P69">
+        <v>0.3</v>
+      </c>
+      <c r="Q69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R69">
+        <v>0.4</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V69">
         <v>0.7</v>
       </c>
       <c r="W69">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ69" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="AL69">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM69">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AN69">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="B70">
-        <v>42.474397000000003</v>
+        <v>42.467851000000003</v>
       </c>
       <c r="C70">
-        <v>43.218505</v>
+        <v>43.221212000000001</v>
       </c>
       <c r="D70">
-        <v>0.56000000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="E70">
-        <v>5.4</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F70">
-        <v>138.4</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="J70">
-        <v>5.66</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K70">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="L70">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="M70">
         <v>0.3</v>
       </c>
       <c r="N70">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O70">
-        <v>3.35</v>
+        <v>4.29</v>
       </c>
       <c r="P70">
         <v>0.4</v>
       </c>
+      <c r="Q70">
+        <v>0.3</v>
+      </c>
       <c r="S70">
         <v>0.3</v>
       </c>
       <c r="U70">
-        <v>1.02</v>
+        <v>0.13</v>
       </c>
       <c r="V70">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="W70">
-        <v>1.5</v>
-      </c>
-      <c r="Y70">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ70" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AK70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL70">
+        <v>49</v>
+      </c>
+      <c r="AM70">
+        <v>19</v>
+      </c>
+      <c r="AN70">
+        <v>19</v>
+      </c>
+      <c r="AO70" t="s">
         <v>146</v>
       </c>
-      <c r="AL70">
-        <v>50</v>
-      </c>
-      <c r="AM70">
-        <v>13</v>
-      </c>
-      <c r="AN70">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B71">
-        <v>42.474685999999899</v>
+        <v>42.468826</v>
       </c>
       <c r="C71">
-        <v>43.2175879999999</v>
+        <v>43.2206949999999</v>
       </c>
       <c r="D71">
-        <v>1.1200000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F71">
-        <v>234.5</v>
+        <v>247</v>
       </c>
       <c r="G71">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="H71">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="J71">
-        <v>4.83</v>
+        <v>3.15</v>
       </c>
       <c r="K71">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="L71">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="M71">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N71">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O71">
-        <v>1.92</v>
-      </c>
-      <c r="R71">
-        <v>0.1</v>
+        <v>2.63</v>
       </c>
       <c r="S71">
         <v>0.2</v>
       </c>
-      <c r="U71">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="V71">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W71">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="AF71">
+        <v>0.11</v>
       </c>
       <c r="AH71">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>59</v>
       </c>
       <c r="AJ71" t="s">
         <v>59</v>
       </c>
-      <c r="AK71" t="s">
-        <v>59</v>
-      </c>
       <c r="AL71">
         <v>63</v>
       </c>
       <c r="AM71">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AN71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B72">
-        <v>42.478431</v>
+        <v>42.469589999999897</v>
       </c>
       <c r="C72">
-        <v>43.215865000000001</v>
+        <v>43.220968999999897</v>
       </c>
       <c r="D72">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="E72">
-        <v>5.07</v>
+        <v>6.73</v>
       </c>
       <c r="F72">
-        <v>234.3</v>
+        <v>234.4</v>
+      </c>
+      <c r="G72">
+        <v>0.43</v>
+      </c>
+      <c r="H72">
+        <v>0.18</v>
+      </c>
+      <c r="I72">
+        <v>0.32</v>
       </c>
       <c r="J72">
-        <v>4.95</v>
+        <v>5.37</v>
       </c>
       <c r="K72">
-        <v>0.28000000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
-        <v>0.11</v>
+        <v>0.83</v>
       </c>
       <c r="N72">
+        <v>0.8</v>
+      </c>
+      <c r="O72">
+        <v>4.43</v>
+      </c>
+      <c r="P72">
         <v>0.4</v>
-      </c>
-      <c r="O72">
-        <v>1.36</v>
-      </c>
-      <c r="Q72">
-        <v>0.1</v>
       </c>
       <c r="R72">
         <v>0.2</v>
       </c>
       <c r="S72">
-        <v>0.15</v>
-      </c>
-      <c r="U72">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="V72">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="W72">
-        <v>0.9</v>
-      </c>
-      <c r="AB72">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH72">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ72" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AL72">
         <v>46</v>
@@ -9360,285 +9452,324 @@
         <v>15</v>
       </c>
       <c r="AN72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B73">
-        <v>42.484884999999899</v>
+        <v>42.488796000000001</v>
       </c>
       <c r="C73">
-        <v>43.217697000000001</v>
+        <v>43.223865000000004</v>
       </c>
       <c r="D73">
-        <v>0.69</v>
+        <v>1.51</v>
       </c>
       <c r="E73">
-        <v>8.67</v>
+        <v>7.41</v>
       </c>
       <c r="F73">
-        <v>238.5</v>
+        <v>311.89999999999998</v>
+      </c>
+      <c r="H73">
+        <v>0.56000000000000005</v>
       </c>
       <c r="J73">
-        <v>5.91</v>
+        <v>7.74</v>
       </c>
       <c r="K73">
-        <v>0.24</v>
+        <v>0.86</v>
       </c>
       <c r="L73">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
       <c r="M73">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N73">
+        <v>1.5</v>
+      </c>
+      <c r="O73">
+        <v>5.59</v>
+      </c>
+      <c r="R73">
         <v>0.2</v>
       </c>
-      <c r="O73">
-        <v>2.04</v>
-      </c>
       <c r="S73">
-        <v>0.3</v>
+        <v>1.2</v>
+      </c>
+      <c r="U73">
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="W73">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AB73">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="X73">
+        <v>0.2</v>
+      </c>
+      <c r="AD73">
+        <v>0.12</v>
       </c>
       <c r="AH73">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AJ73" t="s">
         <v>152</v>
       </c>
+      <c r="AK73" t="s">
+        <v>142</v>
+      </c>
       <c r="AL73">
         <v>51</v>
       </c>
       <c r="AM73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B74">
-        <v>42.486913999999899</v>
+        <v>42.488534000000001</v>
       </c>
       <c r="C74">
-        <v>43.2182859999999</v>
+        <v>43.223379999999899</v>
       </c>
       <c r="D74">
-        <v>0.52</v>
+        <v>1.5</v>
       </c>
       <c r="E74">
-        <v>4.76</v>
+        <v>6.41</v>
       </c>
       <c r="F74">
-        <v>209.3</v>
+        <v>206.9</v>
+      </c>
+      <c r="H74">
+        <v>0.46</v>
+      </c>
+      <c r="I74">
+        <v>0.35</v>
       </c>
       <c r="J74">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="K74">
-        <v>0.87</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>0.32</v>
+        <v>1.04</v>
       </c>
       <c r="N74">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="O74">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="P74">
-        <v>0.5</v>
+        <v>10.29</v>
+      </c>
+      <c r="R74">
+        <v>0.3</v>
       </c>
       <c r="S74">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V74">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="W74">
-        <v>0.7</v>
-      </c>
-      <c r="Z74">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AH74">
         <v>20</v>
       </c>
       <c r="AJ74" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>146</v>
       </c>
       <c r="AL74">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AM74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN74">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B75">
-        <v>42.478547880400001</v>
+        <v>42.488343</v>
       </c>
       <c r="C75">
-        <v>43.217169552100003</v>
+        <v>43.223039999999898</v>
+      </c>
+      <c r="D75">
+        <v>0.19</v>
       </c>
       <c r="E75">
-        <v>8.48</v>
+        <v>6.92</v>
       </c>
       <c r="F75">
-        <v>224.9</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
+        <v>193.8</v>
       </c>
       <c r="J75">
-        <v>6.51</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="K75">
-        <v>0.38</v>
+        <v>2.11</v>
       </c>
       <c r="L75">
+        <v>1.18</v>
+      </c>
+      <c r="M75">
+        <v>0.3</v>
+      </c>
+      <c r="N75">
+        <v>4.3</v>
+      </c>
+      <c r="O75">
+        <v>11.29</v>
+      </c>
+      <c r="S75">
+        <v>0.6</v>
+      </c>
+      <c r="V75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W75">
+        <v>1.5</v>
+      </c>
+      <c r="AD75">
+        <v>0.12</v>
+      </c>
+      <c r="AH75">
+        <v>24</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL75">
+        <v>55</v>
+      </c>
+      <c r="AM75">
+        <v>4</v>
+      </c>
+      <c r="AN75">
+        <v>12</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76">
+        <v>42.488903999999899</v>
+      </c>
+      <c r="C76">
+        <v>43.221727999999899</v>
+      </c>
+      <c r="D76">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E76">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F76">
+        <v>184.3</v>
+      </c>
+      <c r="J76">
+        <v>3.31</v>
+      </c>
+      <c r="K76">
+        <v>1.94</v>
+      </c>
+      <c r="L76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>0.8</v>
+      </c>
+      <c r="O76">
+        <v>2.31</v>
+      </c>
+      <c r="P76">
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <v>0.13</v>
+      </c>
+      <c r="S76">
+        <v>0.8</v>
+      </c>
+      <c r="T76">
+        <v>0.2</v>
+      </c>
+      <c r="U76">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V76">
+        <v>0.8</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
         <v>0.19</v>
       </c>
-      <c r="M75">
-        <v>0.1</v>
-      </c>
-      <c r="N75">
-        <v>0.4</v>
-      </c>
-      <c r="O75">
-        <v>2.38</v>
-      </c>
-      <c r="P75">
-        <v>0.3</v>
-      </c>
-      <c r="Q75">
-        <v>0.1</v>
-      </c>
-      <c r="R75">
-        <v>0.4</v>
-      </c>
-      <c r="S75">
-        <v>0.4</v>
-      </c>
-      <c r="V75">
-        <v>0.5</v>
-      </c>
-      <c r="W75">
-        <v>0.7</v>
-      </c>
-      <c r="AH75">
-        <v>6</v>
-      </c>
-      <c r="AJ75" t="s">
+      <c r="AH76">
+        <v>19</v>
+      </c>
+      <c r="AI76" t="s">
         <v>142</v>
       </c>
-      <c r="AK75" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL75">
-        <v>63</v>
-      </c>
-      <c r="AM75">
-        <v>6</v>
-      </c>
-      <c r="AN75">
-        <v>19</v>
-      </c>
-      <c r="AO75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>223</v>
-      </c>
-      <c r="B76">
-        <v>42.481013966600003</v>
-      </c>
-      <c r="C76">
-        <v>43.219298332500003</v>
-      </c>
-      <c r="D76">
-        <v>1.02</v>
-      </c>
-      <c r="E76">
-        <v>2.8</v>
-      </c>
-      <c r="F76">
-        <v>128.9</v>
-      </c>
-      <c r="J76">
-        <v>2.31</v>
-      </c>
-      <c r="K76">
-        <v>1.89</v>
-      </c>
-      <c r="L76">
-        <v>0.52</v>
-      </c>
-      <c r="M76">
-        <v>0.4</v>
-      </c>
-      <c r="N76">
-        <v>0.5</v>
-      </c>
-      <c r="O76">
-        <v>3.84</v>
-      </c>
-      <c r="S76">
-        <v>1.4</v>
-      </c>
-      <c r="U76">
-        <v>0.26</v>
-      </c>
-      <c r="V76">
-        <v>0.7</v>
-      </c>
-      <c r="W76">
-        <v>1.2</v>
-      </c>
-      <c r="AH76">
-        <v>5</v>
-      </c>
       <c r="AJ76" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AK76" t="s">
         <v>146</v>
       </c>
       <c r="AL76">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AM76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN76">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:AR76">
+    <sortCondition ref="A4:A76"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4136,11 +4136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AC30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:AR23"/>
+      <selection pane="bottomRight" activeCell="AK43" sqref="AK43:AN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -728,12 +728,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,13 +799,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4137,10 +4146,10 @@
   <dimension ref="A1:AR76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AC30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK43" sqref="AK43:AN43"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6547,7 +6556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -6695,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -6843,2928 +6852,3665 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>42.493332000000002</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>43.225065000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>0.69</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>7.49</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>173.5</v>
       </c>
-      <c r="H37">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5">
         <v>1.3</v>
       </c>
-      <c r="J37">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
         <v>3.55</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>0.74</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>1.55</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>0.3</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <v>1.7</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="5">
         <v>9.06</v>
       </c>
-      <c r="S37">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5">
         <v>0.9</v>
       </c>
-      <c r="U37">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
         <v>0.39</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="5">
         <v>0.9</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="5">
         <v>1.5</v>
       </c>
-      <c r="AH37">
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5">
         <v>11</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AK37" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" s="5">
         <v>55</v>
       </c>
-      <c r="AM37">
+      <c r="AM37" s="5">
         <v>9</v>
       </c>
-      <c r="AN37">
+      <c r="AN37" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>42.491751999999899</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>43.224445000000003</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>0.33</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>4.71</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <v>114.2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <v>0.32</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="5">
         <v>0.18</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5">
         <v>2.64</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <v>0.72</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="5">
         <v>0.66</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="5">
         <v>0.2</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="5">
         <v>1.7</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="5">
         <v>6.35</v>
       </c>
-      <c r="R38">
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5">
         <v>0.2</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="5">
         <v>0.9</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="5">
         <v>0.1</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="5">
         <v>0.27</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="5">
         <v>0.6</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="5">
         <v>0.7</v>
       </c>
-      <c r="AA38">
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5">
         <v>0.32</v>
       </c>
-      <c r="AH38">
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5">
         <v>8</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AL38">
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5">
         <v>66</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" s="5">
         <v>1</v>
       </c>
-      <c r="AN38">
+      <c r="AN38" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>42.490695000000002</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>43.224632999999898</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>0.42</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>4.51</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>125.3</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <v>0.24</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>0.87</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="5">
         <v>0.38</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="5">
         <v>2.84</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <v>3.02</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="5">
         <v>0.37</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="5">
         <v>0.08</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="5">
         <v>3.72</v>
       </c>
-      <c r="R39">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5">
         <v>0.2</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="5">
         <v>0.12</v>
       </c>
-      <c r="V39">
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5">
         <v>0.8</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="5">
         <v>0.3</v>
       </c>
-      <c r="AA39">
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5">
         <v>0.34</v>
       </c>
-      <c r="AG39">
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5">
         <v>0.15</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="5">
         <v>15</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AI39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AJ39" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AL39">
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5">
         <v>52</v>
       </c>
-      <c r="AM39">
+      <c r="AM39" s="5">
         <v>5</v>
       </c>
-      <c r="AN39">
+      <c r="AN39" s="5">
         <v>19</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AO39" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>42.490015</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>43.224711999999897</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>0.3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>1.52</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <v>298</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
         <v>0.86</v>
       </c>
-      <c r="J40">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>2.4</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <v>1.72</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="5">
         <v>0.1</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="5">
         <v>0.12</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="5">
         <v>4.12</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="5">
         <v>0.1</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="5">
         <v>0.2</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="5">
         <v>0.12</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="5">
         <v>0.4</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="5">
         <v>0.32</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="5">
         <v>1.2</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="5">
         <v>0.8</v>
       </c>
-      <c r="Z40">
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5">
         <v>0.41</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="5">
         <v>0.41</v>
       </c>
-      <c r="AH40">
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5">
         <v>17</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AK40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL40">
+      <c r="AL40" s="5">
         <v>56</v>
       </c>
-      <c r="AM40">
+      <c r="AM40" s="5">
         <v>6</v>
       </c>
-      <c r="AN40">
+      <c r="AN40" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>42.488481</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>43.225448999999898</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>0.43</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>6.66</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>219.7</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <v>0.25</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>0.35</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <v>0.34</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="5">
         <v>5.21</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>1.75</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <v>0.2</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="5">
         <v>1.2</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="5">
         <v>6.72</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="5">
         <v>0.02</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="5">
         <v>0.4</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="5">
         <v>1.3</v>
       </c>
-      <c r="V41">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5">
         <v>0.3</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="5">
         <v>1.5</v>
       </c>
-      <c r="AH41">
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5">
         <v>12</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AK41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="5">
         <v>61</v>
       </c>
-      <c r="AM41">
+      <c r="AM41" s="5">
         <v>6</v>
       </c>
-      <c r="AN41">
+      <c r="AN41" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>42.462518000000003</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>43.220208</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>6.73</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>228.2</v>
       </c>
-      <c r="J42">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
         <v>0.63</v>
       </c>
-      <c r="N42">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
         <v>0.3</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="5">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Q42">
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5">
         <v>0.1</v>
       </c>
-      <c r="S42">
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
         <v>0.2</v>
       </c>
-      <c r="V42">
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5">
         <v>0.5</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="5">
         <v>1.8</v>
       </c>
-      <c r="AH42">
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5">
         <v>4</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AK42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL42">
+      <c r="AL42" s="5">
         <v>53</v>
       </c>
-      <c r="AM42">
+      <c r="AM42" s="5">
         <v>11</v>
       </c>
-      <c r="AN42">
+      <c r="AN42" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>42.467429000000003</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>43.220792000000003</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>5.57</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>185.3</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="5">
         <v>1.9</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>3.1</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="5">
         <v>2.1</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="5">
         <v>3.87</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <v>2.11</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <v>6.17</v>
       </c>
-      <c r="N43">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
         <v>1.4</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="5">
         <v>7.66</v>
       </c>
-      <c r="S43">
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5">
         <v>0.6</v>
       </c>
-      <c r="V43">
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="5">
         <v>1.6</v>
       </c>
-      <c r="AG43">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="5">
         <v>11</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AI43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ43" t="s">
+      <c r="AJ43" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AK43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="5">
         <v>40</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="5">
         <v>23</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>42.468632999999897</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>43.220460000000003</v>
       </c>
-      <c r="E44">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>6.49</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>170.6</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5">
         <v>1.5</v>
       </c>
-      <c r="J44">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
         <v>2.54</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <v>0.96</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <v>1.58</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="5">
         <v>0.2</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="5">
         <v>1.3</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="5">
         <v>10.77</v>
       </c>
-      <c r="S44">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5">
         <v>0.2</v>
       </c>
-      <c r="V44">
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="5">
         <v>0.7</v>
       </c>
-      <c r="Y44">
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5">
         <v>0.5</v>
       </c>
-      <c r="AH44">
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5">
         <v>7</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AL44">
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5">
         <v>50</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="5">
         <v>8</v>
       </c>
-      <c r="AN44">
+      <c r="AN44" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>42.469019000000003</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>43.221048000000003</v>
       </c>
-      <c r="E45">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>2.23</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>270</v>
       </c>
-      <c r="J45">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
         <v>2.21</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <v>0.5</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <v>0.86</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <v>0.2</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="5">
         <v>0.4</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="5">
         <v>1.46</v>
       </c>
-      <c r="S45">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5">
         <v>0.3</v>
       </c>
-      <c r="V45">
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5">
         <v>0.5</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y45">
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5">
         <v>0.15</v>
       </c>
-      <c r="AB45">
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5">
         <v>0.5</v>
       </c>
-      <c r="AH45">
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5">
         <v>11</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AI45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AJ45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AK45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="5">
         <v>55</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="5">
         <v>14</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>42.4700279999999</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>43.220308000000003</v>
       </c>
-      <c r="E46">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>7.18</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>207.3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>0.3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>0.21</v>
       </c>
-      <c r="J46">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
         <v>3.99</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <v>0.9</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <v>0.71</v>
       </c>
-      <c r="N46">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
         <v>1.2</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="5">
         <v>8.61</v>
       </c>
-      <c r="S46">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
         <v>0.5</v>
       </c>
-      <c r="V46">
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="5">
         <v>1.3</v>
       </c>
-      <c r="AH46">
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5">
         <v>9</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AI46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AJ46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AK46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL46">
+      <c r="AL46" s="5">
         <v>41</v>
       </c>
-      <c r="AM46">
+      <c r="AM46" s="5">
         <v>10</v>
       </c>
-      <c r="AN46">
+      <c r="AN46" s="5">
         <v>34</v>
       </c>
-      <c r="AO46" t="s">
+      <c r="AO46" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="AP46" s="5"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>42.470640000000003</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>43.219876999999897</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>1.31</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>8.9700000000000006</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>277.5</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>0.46</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>0.18</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="5">
         <v>6.56</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <v>1.3</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="5">
         <v>0.79</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <v>0.2</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <v>0.7</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="5">
         <v>5.17</v>
       </c>
-      <c r="S47">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5">
         <v>0.16</v>
       </c>
-      <c r="V47">
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5">
         <v>0.6</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="5">
         <v>1.6</v>
       </c>
-      <c r="AE47">
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5">
         <v>1.4</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="5">
         <v>0.1</v>
       </c>
-      <c r="AH47">
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5">
         <v>7</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL47">
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5">
         <v>42</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="5">
         <v>7</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>42.472442000000001</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>43.2212719999999</v>
       </c>
-      <c r="E48">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
         <v>5.87</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>167.4</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="5">
         <v>0.21</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="5">
         <v>2.41</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <v>0.98</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="5">
         <v>0.65</v>
       </c>
-      <c r="N48">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5">
         <v>1.4</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="5">
         <v>9.3699999999999992</v>
       </c>
-      <c r="S48">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5">
         <v>1.4</v>
       </c>
-      <c r="V48">
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="5">
         <v>1.6</v>
       </c>
-      <c r="Z48">
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5">
         <v>0.48</v>
       </c>
-      <c r="AH48">
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5">
         <v>14</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AL48">
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5">
         <v>31</v>
       </c>
-      <c r="AM48">
+      <c r="AM48" s="5">
         <v>8</v>
       </c>
-      <c r="AN48">
+      <c r="AN48" s="5">
         <v>33</v>
       </c>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>42.472571000000002</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>43.220233999999898</v>
       </c>
-      <c r="E49">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
         <v>10.210000000000001</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>304.7</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="5">
         <v>0.18</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J49">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
         <v>6.31</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <v>3.32</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="5">
         <v>1.17</v>
       </c>
-      <c r="N49">
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
         <v>1.3</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="5">
         <v>7.14</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="5">
         <v>0.7</v>
       </c>
-      <c r="S49">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5">
         <v>0.3</v>
       </c>
-      <c r="V49">
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5">
         <v>0.7</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH49">
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5">
         <v>3</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AK49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL49">
+      <c r="AL49" s="5">
         <v>45</v>
       </c>
-      <c r="AM49">
+      <c r="AM49" s="5">
         <v>3</v>
       </c>
-      <c r="AN49">
+      <c r="AN49" s="5">
         <v>40</v>
       </c>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>42.472641000000003</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>43.220311000000002</v>
       </c>
-      <c r="E50">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
         <v>6.32</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>159.9</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5">
         <v>3</v>
       </c>
-      <c r="J50">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5">
         <v>5.59</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="5">
         <v>1.23</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="5">
         <v>0.71</v>
       </c>
-      <c r="N50">
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="5">
         <v>5.03</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="5">
         <v>0.3</v>
       </c>
-      <c r="S50">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5">
         <v>0.5</v>
       </c>
-      <c r="V50">
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5">
         <v>0.7</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="5">
         <v>1.9</v>
       </c>
-      <c r="AH50">
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5">
         <v>6</v>
       </c>
-      <c r="AJ50" t="s">
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL50">
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5">
         <v>57</v>
       </c>
-      <c r="AM50">
+      <c r="AM50" s="5">
         <v>14</v>
       </c>
-      <c r="AN50">
+      <c r="AN50" s="5">
         <v>21</v>
       </c>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>42.47448</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>43.219354000000003</v>
       </c>
-      <c r="E51">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>361.3</v>
       </c>
-      <c r="J51">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
         <v>8.66</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="5">
         <v>0.15</v>
       </c>
-      <c r="N51">
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
         <v>2</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="5">
         <v>13.45</v>
       </c>
-      <c r="S51">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5">
         <v>1</v>
       </c>
-      <c r="V51">
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5">
         <v>0.7</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="5">
         <v>2.4</v>
       </c>
-      <c r="AH51">
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5">
         <v>11</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AK51" t="s">
+      <c r="AK51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL51">
+      <c r="AL51" s="5">
         <v>32</v>
       </c>
-      <c r="AM51">
+      <c r="AM51" s="5">
         <v>31</v>
       </c>
-      <c r="AN51">
+      <c r="AN51" s="5">
         <v>24</v>
       </c>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>42.474397000000003</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>43.218505</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>5.4</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>138.4</v>
       </c>
-      <c r="J52">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5">
         <v>5.66</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
         <v>0.16</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="5">
         <v>0.49</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="5">
         <v>0.3</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="5">
         <v>0.6</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="5">
         <v>3.35</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="5">
         <v>0.4</v>
       </c>
-      <c r="S52">
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5">
         <v>0.3</v>
       </c>
-      <c r="U52">
+      <c r="T52" s="5"/>
+      <c r="U52" s="5">
         <v>1.02</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="5">
         <v>0.7</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="5">
         <v>1.5</v>
       </c>
-      <c r="Y52">
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH52">
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5">
         <v>9</v>
       </c>
-      <c r="AJ52" t="s">
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AK52" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL52">
+      <c r="AL52" s="5">
         <v>50</v>
       </c>
-      <c r="AM52">
+      <c r="AM52" s="5">
         <v>13</v>
       </c>
-      <c r="AN52">
+      <c r="AN52" s="5">
         <v>24</v>
       </c>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>42.474685999999899</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>43.2175879999999</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>6</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>234.5</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="5">
         <v>0.9</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <v>0.7</v>
       </c>
-      <c r="J53">
+      <c r="I53" s="5"/>
+      <c r="J53" s="5">
         <v>4.83</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
         <v>0.71</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="5">
         <v>0.35</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="5">
         <v>0.1</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="5">
         <v>0.3</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="5">
         <v>1.92</v>
       </c>
-      <c r="R53">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5">
         <v>0.1</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="5">
         <v>0.2</v>
       </c>
-      <c r="U53">
+      <c r="T53" s="5"/>
+      <c r="U53" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="5">
         <v>0.3</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="5">
         <v>0.7</v>
       </c>
-      <c r="AH53">
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5">
         <v>5</v>
       </c>
-      <c r="AJ53" t="s">
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AK53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL53">
+      <c r="AL53" s="5">
         <v>63</v>
       </c>
-      <c r="AM53">
+      <c r="AM53" s="5">
         <v>11</v>
       </c>
-      <c r="AN53">
+      <c r="AN53" s="5">
         <v>20</v>
       </c>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>42.463645</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>43.220910000000003</v>
       </c>
-      <c r="E54">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
         <v>5.14</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>154.6</v>
       </c>
-      <c r="J54">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5">
         <v>3.25</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
         <v>0.2</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <v>0.3</v>
       </c>
-      <c r="N54">
+      <c r="M54" s="5"/>
+      <c r="N54" s="5">
         <v>1</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="5">
         <v>10.11</v>
       </c>
-      <c r="S54">
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5">
         <v>0.3</v>
       </c>
-      <c r="V54">
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5">
         <v>0.2</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="5">
         <v>0.8</v>
       </c>
-      <c r="AH54">
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5">
         <v>6</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AK54" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL54">
+      <c r="AL54" s="5">
         <v>57</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" s="5">
         <v>12</v>
       </c>
-      <c r="AN54">
+      <c r="AN54" s="5">
         <v>22</v>
       </c>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>42.476743999999897</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>43.21978</v>
       </c>
-      <c r="E55">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
         <v>5.55</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>152.30000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="5">
         <v>0.22</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>0.24</v>
       </c>
-      <c r="J55">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5">
         <v>2.68</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="5">
         <v>0.89</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="5">
         <v>0.2</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="5">
         <v>0.9</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="5">
         <v>7.2</v>
       </c>
-      <c r="R55">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5">
         <v>0.2</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="5">
         <v>0.5</v>
       </c>
-      <c r="V55">
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5">
         <v>1.2</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="5">
         <v>0.5</v>
       </c>
-      <c r="AH55">
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5">
         <v>6</v>
       </c>
-      <c r="AI55" t="s">
+      <c r="AI55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ55" t="s">
+      <c r="AJ55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AK55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL55">
+      <c r="AL55" s="5">
         <v>59</v>
       </c>
-      <c r="AM55">
+      <c r="AM55" s="5">
         <v>10</v>
       </c>
-      <c r="AN55">
+      <c r="AN55" s="5">
         <v>20</v>
       </c>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>42.477587999999898</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>43.216532999999899</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>0.5</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>7.86</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>384.6</v>
       </c>
-      <c r="J56">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="5">
         <v>0.78</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <v>0.16</v>
       </c>
-      <c r="N56">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
         <v>3.36</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="5">
         <v>2.89</v>
       </c>
-      <c r="Q56">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5">
         <v>0.6</v>
       </c>
-      <c r="S56">
+      <c r="R56" s="5"/>
+      <c r="S56" s="5">
         <v>0.8</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="5">
         <v>0.2</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="5">
         <v>0.9</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="5">
         <v>0.3</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="5">
         <v>0.8</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="5">
         <v>1.6</v>
       </c>
-      <c r="AH56">
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5">
         <v>10</v>
       </c>
-      <c r="AJ56" t="s">
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL56">
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5">
         <v>56</v>
       </c>
-      <c r="AM56">
+      <c r="AM56" s="5">
         <v>13</v>
       </c>
-      <c r="AN56">
+      <c r="AN56" s="5">
         <v>18</v>
       </c>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>42.478431</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>43.215865000000001</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>0.35</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>5.07</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>234.3</v>
       </c>
-      <c r="J57">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
         <v>4.95</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="5">
         <v>0.11</v>
       </c>
-      <c r="N57">
+      <c r="M57" s="5"/>
+      <c r="N57" s="5">
         <v>0.4</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="5">
         <v>1.36</v>
       </c>
-      <c r="Q57">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5">
         <v>0.1</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="5">
         <v>0.2</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="5">
         <v>0.15</v>
       </c>
-      <c r="U57">
+      <c r="T57" s="5"/>
+      <c r="U57" s="5">
         <v>0.6</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="5">
         <v>0.4</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="5">
         <v>0.9</v>
       </c>
-      <c r="AB57">
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5">
         <v>0.4</v>
       </c>
-      <c r="AH57">
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5">
         <v>9</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL57">
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5">
         <v>46</v>
       </c>
-      <c r="AM57">
+      <c r="AM57" s="5">
         <v>15</v>
       </c>
-      <c r="AN57">
+      <c r="AN57" s="5">
         <v>28</v>
       </c>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>42.480438999999897</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>43.218026000000002</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>0.38</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>4.55</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>203.1</v>
       </c>
-      <c r="J58">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
         <v>6.91</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="5">
         <v>0.71</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="5">
         <v>1.01</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="5">
         <v>0.1</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="5">
         <v>0.1</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="5">
         <v>1.82</v>
       </c>
-      <c r="Q58">
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5">
         <v>0.3</v>
       </c>
-      <c r="S58">
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
         <v>0.3</v>
       </c>
-      <c r="U58">
+      <c r="T58" s="5"/>
+      <c r="U58" s="5">
         <v>1.2</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="5">
         <v>0.7</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z58">
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5">
         <v>0.15</v>
       </c>
-      <c r="AH58">
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5">
         <v>3</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL58">
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5">
         <v>69</v>
       </c>
-      <c r="AM58">
+      <c r="AM58" s="5">
         <v>8</v>
       </c>
-      <c r="AN58">
+      <c r="AN58" s="5">
         <v>19</v>
       </c>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
     </row>
     <row r="59" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>42.484884999999899</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>43.217697000000001</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <v>0.69</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <v>8.67</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>238.5</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
         <v>5.91</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="5">
         <v>0.24</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="5">
         <v>0.26</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="5">
         <v>0.1</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="5">
         <v>0.2</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="5">
         <v>2.04</v>
       </c>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5">
         <v>0.3</v>
       </c>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59">
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5">
         <v>0.7</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59">
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5">
         <v>0.5</v>
       </c>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59">
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5">
         <v>23</v>
       </c>
-      <c r="AI59"/>
-      <c r="AJ59" t="s">
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AK59"/>
-      <c r="AL59">
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5">
         <v>51</v>
       </c>
-      <c r="AM59">
+      <c r="AM59" s="5">
         <v>4</v>
       </c>
-      <c r="AN59">
+      <c r="AN59" s="5">
         <v>18</v>
       </c>
-      <c r="AO59"/>
-      <c r="AP59"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
       <c r="AQ59"/>
       <c r="AR59"/>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>42.486913999999899</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>43.2182859999999</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5">
         <v>0.52</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>4.76</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>209.3</v>
       </c>
-      <c r="J60">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5">
         <v>5.2</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="5">
         <v>0.87</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="5">
         <v>0.32</v>
       </c>
-      <c r="N60">
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
         <v>0.6</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="5">
         <v>0.5</v>
       </c>
-      <c r="S60">
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5">
         <v>0.4</v>
       </c>
-      <c r="V60">
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5">
         <v>0.6</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="5">
         <v>0.7</v>
       </c>
-      <c r="Z60">
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5">
         <v>0.9</v>
       </c>
-      <c r="AH60">
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5">
         <v>20</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL60">
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5">
         <v>43</v>
       </c>
-      <c r="AM60">
+      <c r="AM60" s="5">
         <v>8</v>
       </c>
-      <c r="AN60">
+      <c r="AN60" s="5">
         <v>26</v>
       </c>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>42.487506000000003</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>43.218822000000003</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>0.46</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>166</v>
       </c>
-      <c r="J61">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5">
         <v>10.029999999999999</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="5">
         <v>0.21</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="5">
         <v>0.69</v>
       </c>
-      <c r="N61">
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
         <v>0.3</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="5">
         <v>2.11</v>
       </c>
-      <c r="R61">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5">
         <v>0.4</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="5">
         <v>0.2</v>
       </c>
-      <c r="V61">
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5">
         <v>0.8</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="5">
         <v>1.7</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="5">
         <v>0.15</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="5">
         <v>0.5</v>
       </c>
-      <c r="AB61">
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5">
         <v>0.8</v>
       </c>
-      <c r="AH61">
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5">
         <v>6</v>
       </c>
-      <c r="AJ61" t="s">
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AL61">
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5">
         <v>59</v>
       </c>
-      <c r="AM61">
+      <c r="AM61" s="5">
         <v>10</v>
       </c>
-      <c r="AN61">
+      <c r="AN61" s="5">
         <v>20</v>
       </c>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>42.478547880400001</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>43.217169552100003</v>
       </c>
-      <c r="E62">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5">
         <v>8.48</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="5">
         <v>224.9</v>
       </c>
-      <c r="H62">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5">
         <v>1</v>
       </c>
-      <c r="J62">
+      <c r="I62" s="5"/>
+      <c r="J62" s="5">
         <v>6.51</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="5">
         <v>0.38</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="5">
         <v>0.19</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="5">
         <v>0.1</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="5">
         <v>0.4</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="5">
         <v>2.38</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="5">
         <v>0.3</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="5">
         <v>0.1</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="5">
         <v>0.4</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="5">
         <v>0.4</v>
       </c>
-      <c r="V62">
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5">
         <v>0.5</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="5">
         <v>0.7</v>
       </c>
-      <c r="AH62">
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5">
         <v>6</v>
       </c>
-      <c r="AJ62" t="s">
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AK62" t="s">
+      <c r="AK62" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL62">
+      <c r="AL62" s="5">
         <v>63</v>
       </c>
-      <c r="AM62">
+      <c r="AM62" s="5">
         <v>6</v>
       </c>
-      <c r="AN62">
+      <c r="AN62" s="5">
         <v>19</v>
       </c>
-      <c r="AO62" t="s">
+      <c r="AO62" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="AP62" s="5"/>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>42.481013966600003</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>43.219298332500003</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5">
         <v>1.02</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="5">
         <v>2.8</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="5">
         <v>128.9</v>
       </c>
-      <c r="J63">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5">
         <v>2.31</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="5">
         <v>1.89</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="5">
         <v>0.52</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="5">
         <v>0.4</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="5">
         <v>0.5</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="5">
         <v>3.84</v>
       </c>
-      <c r="S63">
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5">
         <v>1.4</v>
       </c>
-      <c r="U63">
+      <c r="T63" s="5"/>
+      <c r="U63" s="5">
         <v>0.26</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="5">
         <v>0.7</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="5">
         <v>1.2</v>
       </c>
-      <c r="AH63">
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5">
         <v>5</v>
       </c>
-      <c r="AJ63" t="s">
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AK63" t="s">
+      <c r="AK63" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL63">
+      <c r="AL63" s="5">
         <v>48</v>
       </c>
-      <c r="AM63">
+      <c r="AM63" s="5">
         <v>8</v>
       </c>
-      <c r="AN63">
+      <c r="AN63" s="5">
         <v>31</v>
       </c>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>42.465200000000003</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>43.220357999999898</v>
       </c>
-      <c r="E64">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5">
         <v>6.66</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>291.60000000000002</v>
       </c>
-      <c r="J64">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5">
         <v>5.48</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="5">
         <v>0.23</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="5">
         <v>0.2</v>
       </c>
-      <c r="N64">
+      <c r="M64" s="5"/>
+      <c r="N64" s="5">
         <v>0.2</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="5">
         <v>0.53</v>
       </c>
-      <c r="R64">
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5">
         <v>0.1</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="5">
         <v>0.17</v>
       </c>
-      <c r="V64">
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5">
         <v>0.3</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="5">
         <v>0.6</v>
       </c>
-      <c r="Z64">
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5">
         <v>0.11</v>
       </c>
-      <c r="AB64">
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH64">
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5">
         <v>5</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AI64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ64" t="s">
+      <c r="AJ64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL64">
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5">
         <v>55</v>
       </c>
-      <c r="AM64">
+      <c r="AM64" s="5">
         <v>10</v>
       </c>
-      <c r="AN64">
+      <c r="AN64" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>42.465536999999898</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>43.220919000000002</v>
       </c>
-      <c r="E65">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
         <v>1.36</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="5">
         <v>419.2</v>
       </c>
-      <c r="J65">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5">
         <v>0.52</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="5">
         <v>0.13</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="5">
         <v>0.21</v>
       </c>
-      <c r="N65">
+      <c r="M65" s="5"/>
+      <c r="N65" s="5">
         <v>0.1</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="5">
         <v>0.39</v>
       </c>
-      <c r="Q65">
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5">
         <v>0.1</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="5">
         <v>0.1</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="5">
         <v>0.26</v>
       </c>
-      <c r="V65">
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5">
         <v>0.2</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH65">
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5">
         <v>11</v>
       </c>
-      <c r="AI65" t="s">
+      <c r="AI65" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ65" t="s">
+      <c r="AJ65" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL65">
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5">
         <v>61</v>
       </c>
-      <c r="AM65">
+      <c r="AM65" s="5">
         <v>5</v>
       </c>
-      <c r="AN65">
+      <c r="AN65" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>42.466709000000002</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>43.220782</v>
       </c>
-      <c r="E66">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5">
         <v>11.8</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="5">
         <v>240.5</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="5">
         <v>0.5</v>
       </c>
-      <c r="J66">
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5">
         <v>9.84</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="5">
         <v>0.22</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N66">
+      <c r="M66" s="5"/>
+      <c r="N66" s="5">
         <v>1.02</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="5">
         <v>6.84</v>
       </c>
-      <c r="S66">
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5">
         <v>0.5</v>
       </c>
-      <c r="V66">
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5">
         <v>0.4</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="5">
         <v>1.7</v>
       </c>
-      <c r="AB66">
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5">
         <v>0.5</v>
       </c>
-      <c r="AH66">
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5">
         <v>12</v>
       </c>
-      <c r="AI66" t="s">
+      <c r="AI66" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ66" t="s">
+      <c r="AJ66" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL66">
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5">
         <v>43</v>
       </c>
-      <c r="AM66">
+      <c r="AM66" s="5">
         <v>18</v>
       </c>
-      <c r="AN66">
+      <c r="AN66" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>42.467247</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>43.220412000000003</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5">
         <v>0.51</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="5">
         <v>300.39999999999998</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="5">
         <v>1.5</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J67">
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="5">
         <v>1.31</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="5">
         <v>0.67</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="5">
         <v>0.3</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="5">
         <v>0.9</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="5">
         <v>2.65</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="5">
         <v>0.2</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="5">
         <v>0.1</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="5">
         <v>0.2</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="5">
         <v>0.2</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="5">
         <v>0.1</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="5">
         <v>0.5</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="5">
         <v>0.5</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="5">
         <v>1.8</v>
       </c>
-      <c r="AB67">
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5">
         <v>0.4</v>
       </c>
-      <c r="AH67">
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5">
         <v>9</v>
       </c>
-      <c r="AI67" t="s">
+      <c r="AI67" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AJ67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL67">
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5">
         <v>45</v>
       </c>
-      <c r="AM67">
+      <c r="AM67" s="5">
         <v>16</v>
       </c>
-      <c r="AN67">
+      <c r="AN67" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>42.467657000000003</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>43.220773999999899</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5">
         <v>0.59</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="5">
         <v>256.60000000000002</v>
       </c>
-      <c r="H68">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J68">
+      <c r="I68" s="5"/>
+      <c r="J68" s="5">
         <v>7.66</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="5">
         <v>1.05</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="5">
         <v>0.42</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="5">
         <v>0.1</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="5">
         <v>0.7</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="5">
         <v>3.48</v>
       </c>
-      <c r="S68">
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5">
         <v>0.3</v>
       </c>
-      <c r="V68">
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5">
         <v>0.4</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="5">
         <v>1.5</v>
       </c>
-      <c r="Z68">
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5">
         <v>0.11</v>
       </c>
-      <c r="AB68">
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5">
         <v>0.8</v>
       </c>
-      <c r="AH68">
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5">
         <v>11</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AI68" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ68" t="s">
+      <c r="AJ68" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL68">
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5">
         <v>46</v>
       </c>
-      <c r="AM68">
+      <c r="AM68" s="5">
         <v>18</v>
       </c>
-      <c r="AN68">
+      <c r="AN68" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>42.467986000000003</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>43.220382999999899</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <v>0.21</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="5">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="5">
         <v>201.65</v>
       </c>
-      <c r="H69">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5">
         <v>1.2</v>
       </c>
-      <c r="J69">
+      <c r="I69" s="5"/>
+      <c r="J69" s="5">
         <v>8.4600000000000009</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="5">
         <v>0.6</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="5">
         <v>0.25</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="5">
         <v>0.1</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="5">
         <v>0.3</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="5">
         <v>3.23</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="5">
         <v>0.3</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="5">
         <v>0.4</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="5">
         <v>0.3</v>
       </c>
-      <c r="V69">
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5">
         <v>0.7</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="5">
         <v>2.1</v>
       </c>
-      <c r="AH69">
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5">
         <v>8</v>
       </c>
-      <c r="AJ69" t="s">
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL69">
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5">
         <v>65</v>
       </c>
-      <c r="AM69">
+      <c r="AM69" s="5">
         <v>5</v>
       </c>
-      <c r="AN69">
+      <c r="AN69" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>42.467851000000003</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>43.221212000000001</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <v>0.65</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="5">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="5">
         <v>299.89999999999998</v>
       </c>
-      <c r="J70">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="5">
         <v>0.62</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="5">
         <v>0.78</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="5">
         <v>0.3</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="5">
         <v>0.4</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="5">
         <v>4.29</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="5">
         <v>0.4</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="5">
         <v>0.3</v>
       </c>
-      <c r="S70">
+      <c r="R70" s="5"/>
+      <c r="S70" s="5">
         <v>0.3</v>
       </c>
-      <c r="U70">
+      <c r="T70" s="5"/>
+      <c r="U70" s="5">
         <v>0.13</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="5">
         <v>0.3</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="5">
         <v>2.5</v>
       </c>
-      <c r="AH70">
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5">
         <v>6</v>
       </c>
-      <c r="AJ70" t="s">
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AK70" t="s">
+      <c r="AK70" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL70">
+      <c r="AL70" s="5">
         <v>49</v>
       </c>
-      <c r="AM70">
+      <c r="AM70" s="5">
         <v>19</v>
       </c>
-      <c r="AN70">
+      <c r="AN70" s="5">
         <v>19</v>
       </c>
-      <c r="AO70" t="s">
+      <c r="AO70" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="AP70" s="5"/>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>42.468826</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>43.2206949999999</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <v>0.81</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="5">
         <v>247</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="5">
         <v>0.16</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>0.19</v>
       </c>
-      <c r="J71">
+      <c r="I71" s="5"/>
+      <c r="J71" s="5">
         <v>3.15</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="5">
         <v>0.8</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="5">
         <v>0.51</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="5">
         <v>0.2</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="5">
         <v>0.5</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="5">
         <v>2.63</v>
       </c>
-      <c r="S71">
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5">
         <v>0.2</v>
       </c>
-      <c r="V71">
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5">
         <v>0.5</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="5">
         <v>0.5</v>
       </c>
-      <c r="AF71">
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5">
         <v>0.11</v>
       </c>
-      <c r="AH71">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5">
         <v>3</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="AI71" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ71" t="s">
+      <c r="AJ71" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL71">
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5">
         <v>63</v>
       </c>
-      <c r="AM71">
+      <c r="AM71" s="5">
         <v>4</v>
       </c>
-      <c r="AN71">
+      <c r="AN71" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>42.469589999999897</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>43.220968999999897</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <v>0.24</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
         <v>6.73</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="5">
         <v>234.4</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="5">
         <v>0.43</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="5">
         <v>0.18</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="5">
         <v>0.32</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="5">
         <v>5.37</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="5">
         <v>1.3</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="5">
         <v>0.83</v>
       </c>
-      <c r="N72">
+      <c r="M72" s="5"/>
+      <c r="N72" s="5">
         <v>0.8</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="5">
         <v>4.43</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="5">
         <v>0.4</v>
       </c>
-      <c r="R72">
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5">
         <v>0.2</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="5">
         <v>0.2</v>
       </c>
-      <c r="V72">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5">
         <v>0.7</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="5">
         <v>1.7</v>
       </c>
-      <c r="AH72">
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5">
         <v>12</v>
       </c>
-      <c r="AJ72" t="s">
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AL72">
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5">
         <v>46</v>
       </c>
-      <c r="AM72">
+      <c r="AM72" s="5">
         <v>15</v>
       </c>
-      <c r="AN72">
+      <c r="AN72" s="5">
         <v>22</v>
       </c>
-      <c r="AO72" t="s">
+      <c r="AO72" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="AP72" s="5"/>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>42.488796000000001</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>43.223865000000004</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5">
         <v>1.51</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="5">
         <v>7.41</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="5">
         <v>311.89999999999998</v>
       </c>
-      <c r="H73">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J73">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5">
         <v>7.74</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="5">
         <v>0.86</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="5">
         <v>0.95</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="5">
         <v>0.2</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="5">
         <v>1.5</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="5">
         <v>5.59</v>
       </c>
-      <c r="R73">
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5">
         <v>0.2</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="5">
         <v>1.2</v>
       </c>
-      <c r="U73">
+      <c r="T73" s="5"/>
+      <c r="U73" s="5">
         <v>1.9</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="5">
         <v>0.2</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="5">
         <v>1.5</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="5">
         <v>0.2</v>
       </c>
-      <c r="AD73">
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5">
         <v>0.12</v>
       </c>
-      <c r="AH73">
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5">
         <v>12</v>
       </c>
-      <c r="AJ73" t="s">
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AK73" t="s">
+      <c r="AK73" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL73">
+      <c r="AL73" s="5">
         <v>51</v>
       </c>
-      <c r="AM73">
+      <c r="AM73" s="5">
         <v>7</v>
       </c>
-      <c r="AN73">
+      <c r="AN73" s="5">
         <v>21</v>
       </c>
-      <c r="AP73">
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="AQ73" s="2"/>
+      <c r="AR73" s="2"/>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>42.488534000000001</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>43.223379999999899</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>1.5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="5">
         <v>6.41</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>206.9</v>
       </c>
-      <c r="H74">
+      <c r="G74" s="5"/>
+      <c r="H74" s="5">
         <v>0.46</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="5">
         <v>0.35</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="5">
         <v>5.7</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="5">
         <v>1.4</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="5">
         <v>1.04</v>
       </c>
-      <c r="N74">
+      <c r="M74" s="5"/>
+      <c r="N74" s="5">
         <v>0.26</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="5">
         <v>10.29</v>
       </c>
-      <c r="R74">
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5">
         <v>0.3</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V74">
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5">
         <v>0.25</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="5">
         <v>2.7</v>
       </c>
-      <c r="AH74">
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5">
         <v>20</v>
       </c>
-      <c r="AJ74" t="s">
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AK74" t="s">
+      <c r="AK74" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL74">
+      <c r="AL74" s="5">
         <v>50</v>
       </c>
-      <c r="AM74">
+      <c r="AM74" s="5">
         <v>10</v>
       </c>
-      <c r="AN74">
+      <c r="AN74" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="2"/>
+      <c r="AR74" s="2"/>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>42.488343</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>43.223039999999898</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <v>0.19</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="5">
         <v>6.92</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>193.8</v>
       </c>
-      <c r="J75">
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="5">
         <v>2.11</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="5">
         <v>1.18</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="5">
         <v>0.3</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="5">
         <v>4.3</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="5">
         <v>11.29</v>
       </c>
-      <c r="S75">
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5">
         <v>0.6</v>
       </c>
-      <c r="V75">
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="5">
         <v>1.5</v>
       </c>
-      <c r="AD75">
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5">
         <v>0.12</v>
       </c>
-      <c r="AH75">
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5">
         <v>24</v>
       </c>
-      <c r="AI75" t="s">
+      <c r="AI75" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ75" t="s">
+      <c r="AJ75" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK75" t="s">
+      <c r="AK75" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL75">
+      <c r="AL75" s="5">
         <v>55</v>
       </c>
-      <c r="AM75">
+      <c r="AM75" s="5">
         <v>4</v>
       </c>
-      <c r="AN75">
+      <c r="AN75" s="5">
         <v>12</v>
       </c>
-      <c r="AO75" t="s">
+      <c r="AO75" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="2"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>42.488903999999899</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>43.221727999999899</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="5">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>184.3</v>
       </c>
-      <c r="J76">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5">
         <v>3.31</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="5">
         <v>1.94</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="5">
         <v>2.7</v>
       </c>
-      <c r="N76">
+      <c r="M76" s="5"/>
+      <c r="N76" s="5">
         <v>0.8</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="5">
         <v>2.31</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="5">
         <v>0.5</v>
       </c>
-      <c r="R76">
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5">
         <v>0.13</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="5">
         <v>0.8</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="5">
         <v>0.2</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="5">
         <v>0.8</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="5">
         <v>1.3</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="5">
         <v>0.19</v>
       </c>
-      <c r="AH76">
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5">
         <v>19</v>
       </c>
-      <c r="AI76" t="s">
+      <c r="AI76" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AJ76" t="s">
+      <c r="AJ76" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AK76" t="s">
+      <c r="AK76" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL76">
+      <c r="AL76" s="5">
         <v>52</v>
       </c>
-      <c r="AM76">
+      <c r="AM76" s="5">
         <v>4</v>
       </c>
-      <c r="AN76">
+      <c r="AN76" s="5">
         <v>15</v>
       </c>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="2"/>
+      <c r="AR76" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A4:AR76">

--- a/all_data/DON_FP_2020-2021.xlsx
+++ b/all_data/DON_FP_2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1114,8 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK28" sqref="AK28:AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4145,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
